--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Hibernate" sheetId="2" r:id="rId2"/>
     <sheet name="Eclipselink" sheetId="3" r:id="rId3"/>
+    <sheet name="JPA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="246">
   <si>
     <t>Topics</t>
   </si>
@@ -981,6 +982,841 @@
   </si>
   <si>
     <t>Projects</t>
+  </si>
+  <si>
+    <t>Add this dependency:
+&lt;dependency&gt;
+   &lt;groupId&gt;org.eclipse.persistence&lt;/groupId&gt;
+   &lt;artifactId&gt;eclipselink&lt;/artifactId&gt;
+   &lt;version&gt;2.5.0&lt;/version&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Eclipse Link dependency in pom</t>
+  </si>
+  <si>
+    <t>EntityManagerFactory factory = Persistence.createEntityManagerFactory("eclipselinkpunit");
+  EntityManager entityManager = factory.createEntityManager();
+  EntityTransaction entityTransaction = entityManager.getTransaction();
+  CRUDTable crudTable = new CRUDTable(1L, "Jack", LocalDate.now(Clock.systemDefaultZone()));
+  entityTransaction.begin();
+  entityManager.persist(crudTable);
+  entityTransaction.commit();
+  entityManager.close();</t>
+  </si>
+  <si>
+    <t>Insert record - CRUDTable is a pojo with annotations</t>
+  </si>
+  <si>
+    <t>Select records</t>
+  </si>
+  <si>
+    <t>EntityManagerFactory entityManagerFactory = Persistence.createEntityManagerFactory("eclipselinkpunit");
+EntityManager entityManager = entityManagerFactory.createEntityManager();
+EntityTransaction entityTransaction = entityManager.getTransaction();
+  CRUDTable crudTable = null;
+  entityTransaction.begin();
+  for (int i = 0; i &lt; 10; i++) {
+   crudTable = new CRUDTable(Long.valueOf(i), "Jack-" + i, LocalDate.now(Clock.systemDefaultZone()).plusDays(i));
+   entityManager.persist(crudTable);
+  }
+  entityTransaction.commit();
+  Query query = entityManager.createQuery("select c from CRUDTable c");
+  List&lt;CRUDTable&gt; crudTables = query.getResultList();
+  crudTables.stream().forEach(System.out::println);
+  entityManager.close();</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+  crudTable.setJoiningDate(crudTable.getJoiningDate().plusDays(10));
+  entityTransaction.begin();
+  entityManager.merge(crudTable);
+  entityTransaction.commit();
+  CRUDTable crudTableAfter = (CRUDTable) query.getSingleResult();
+  System.out.println("crudTableAfter: " + crudTableAfter);
+  entityManager.close();</t>
+  </si>
+  <si>
+    <t>EntityManagerFactory entityManagerFactory = Persistence.createEntityManagerFactory("eclipselinkpunit");
+  EntityManager entityManager = entityManagerFactory.createEntityManager();
+  EntityTransaction entityTransaction = entityManager.getTransaction();
+  CRUDTable crudTable = new CRUDTable(20L, "Jack-20", LocalDate.now(Clock.systemDefaultZone()));
+  entityTransaction.begin();
+  entityManager.persist(crudTable);
+  entityTransaction.commit();
+  String selectQuery = "select e from CRUDTest e where e.name=:name";
+  Query query = entityManager.createQuery(selectQuery);
+  query.setParameter("name", "Jack-20");
+  CRUDTable crudTableBefore = (CRUDTable) query.getSingleResult();
+  System.out.println("crudTableBefore: " + crudTableBefore);</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntityManagerFactory entityManagerFactory = Persistence
+    .createEntityManagerFactory("eclipselinkpunit");
+  EntityManager entityManager = entityManagerFactory.createEntityManager();
+  EntityTransaction entityTransaction = entityManager.getTransaction();
+  // insert the record
+  CRUDTable crudTable = new CRUDTable(2L, "Jill", LocalDate.now(Clock.systemDefaultZone()));
+  entityTransaction.begin();
+  entityManager.persist(crudTable);
+  entityTransaction.commit();
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // select the record
+  Query query = entityManager
+    .createQuery("select e from CRUDTest e where e.name=:name and e.joiningDate=:joiningDate");
+  query.setParameter("name", "Jill");
+  query.setParameter("joiningDate", LocalDate.now(Clock.systemDefaultZone()));
+  CRUDTable crudTable2 = (CRUDTable) query.getSingleResult();
+  // delete the record
+  entityTransaction.begin();
+  entityManager.remove(crudTable2);
+  entityTransaction.commit();
+  entityManager.close();</t>
+  </si>
+  <si>
+    <t>http://www.vogella.com/tutorials/JavaPersistenceAPI/article.html</t>
+  </si>
+  <si>
+    <t>Basics link</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/developerworks/java/library/j-typesafejpa/index.html</t>
+  </si>
+  <si>
+    <t>JPQL, Criteria, Metamodel, Relationships, Projections/Selections, Tuple</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java Persistence API
+Forms the bridge between object models (Java programs) and relational models (database program)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Def: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java Persistence API is a collection of classes and methods to persist the vast amounts of data into a database</t>
+    </r>
+  </si>
+  <si>
+    <t>While storing and retrieving object model from relational database, some miss match occurs due to the reasons?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ranularity
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ata navigation
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dentity
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ssociations
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ubtypes
+Mem Tip: GDIAS</t>
+    </r>
+  </si>
+  <si>
+    <t>Granualrity</t>
+  </si>
+  <si>
+    <t>Object model has more granularity than relational model</t>
+  </si>
+  <si>
+    <t>Data navigation</t>
+  </si>
+  <si>
+    <t>Data navigation between objects in object network, is different in both models</t>
+  </si>
+  <si>
+    <t>like object model, relatonal model does not expose identity while writing equality</t>
+  </si>
+  <si>
+    <t>Relational model cannot determine multiple relationships while looking into an object domain model</t>
+  </si>
+  <si>
+    <t>Subtypes (means Inheritance)</t>
+  </si>
+  <si>
+    <t>subtypes are not supported by all types of relational databases</t>
+  </si>
+  <si>
+    <t>Where to use JPA - after referring this only proceed furthur. This is small one</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_where_to_use_JPA.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\images\c_JPA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>JPA History</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Earlier versions of EJB, defined the persistence layer combined with the business logic layer using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>javax.ejb.EntityBean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Interface.
+1. While introducing EJB 3.0, the persistence layer was separated and specified as JPA 1.0 (Java Persistence API). The specifications of this API were released along with the specifications of JAVA EE5 on May 11, 2006 using JSR 220
+2. JPA 2.0 was released with the specifications of JAVA EE6 on December 10, 2009 as a part of Java Community Process JSR 317
+3. JPA 2.1 was released with the specification of JAVA EE7 on April 22, 2013 using JSR 338</t>
+    </r>
+  </si>
+  <si>
+    <t>JPA Providers</t>
+  </si>
+  <si>
+    <t>JPA is an open source API, therefore various enterprise vendors such as Oracle, Redhat, Eclipse, etc. provide new products by adding the JPA persistence flavor in them. Some of these products include
+1. Hibernate 
+2. EclipseLink
+3. TopLink
+4. Spring Data JPA</t>
+  </si>
+  <si>
+    <t>JPA class level architecture</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2_JPA_class_level_architecture.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\images\c_JPA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>javax.persistence package 
+interface, class, enum, annotation summary</t>
+  </si>
+  <si>
+    <t>http://docs.oracle.com/javaee/6/api/javax/persistence/package-summary.html</t>
+  </si>
+  <si>
+    <t>some interfaces and classes in javax.persistene package</t>
+  </si>
+  <si>
+    <t>1. Persistence [c]
+2. EntityManagerFactory(I)
+3. EntityManager(I)
+4. EntityTransaction(I)
+5. Query(I)
+6. Entity(A)</t>
+  </si>
+  <si>
+    <t>Persistence</t>
+  </si>
+  <si>
+    <t>This class contains static methods to obtain the EntityManagerFactory instance.</t>
+  </si>
+  <si>
+    <t>EntityManagerFactory</t>
+  </si>
+  <si>
+    <t>This is a factory class of EntityManager. It creates and manages multiple EntityManager instances</t>
+  </si>
+  <si>
+    <t>EntityManager</t>
+  </si>
+  <si>
+    <t>It is an Interface. 
+It manages the persistence operations on objects. 
+It works like a factory for Query instance.</t>
+  </si>
+  <si>
+    <t>EntityTransaction</t>
+  </si>
+  <si>
+    <t>It has one-to-one relationship with the EntityManager. For each EntityManager, operations are maintained by the EntityTransaction class</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>This interface is implemented by each JPA vendor to obtain the relational objects that meet the criteria</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Entities are the persistence objects, stored as records in the database</t>
+  </si>
+  <si>
+    <t>Note on JPA mapping</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Object database or object relational technologies are taking care of storing, retrieving, updating, and maintaining data. The core part of this object relational technology is mapping </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orm.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> files. As xml does not require compilation, we can easily make changes to multiple data sources with less administration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ORM is a programming ability </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to convert data from object type to relational type and vice versa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+The main feature of ORM is mapping or binding an object to its data in the database. While mapping, we have to consider the data, the type of data, and its relations with self-entity or entities in any other table</t>
+    </r>
+  </si>
+  <si>
+    <t>Advanatages of JPA ORM components</t>
+  </si>
+  <si>
+    <t>1. Idiomatic persistence
+2. High Performance
+3. Reliable</t>
+  </si>
+  <si>
+    <t>Idiometric persistence</t>
+  </si>
+  <si>
+    <t>It enables you to write persistence classes using object oriented classes</t>
+  </si>
+  <si>
+    <t>High Performance</t>
+  </si>
+  <si>
+    <t>It has many fetching techniques and helpful locking techniques</t>
+  </si>
+  <si>
+    <t>Reliable</t>
+  </si>
+  <si>
+    <t>It is highly stable and used by many professional programmers</t>
+  </si>
+  <si>
+    <t>ORM architecture</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Object data phase </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mapping phase </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relational data phase. 
+The mechanism of the programmatic interaction of the above three phases is called as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object relational mapping.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_jpa_tutorial.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\JPA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>JPA Installation</t>
+  </si>
+  <si>
+    <t>refer chapter - 4 in 1_jpa_tutorial.pdf in (JavaPrep\JPA)</t>
+  </si>
+  <si>
+    <t>JPA uses</t>
+  </si>
+  <si>
+    <t>JPQL (Java Persistence Query Language)</t>
+  </si>
+  <si>
+    <t>First example</t>
+  </si>
+  <si>
+    <t>refer 5th chapter in 1_jpa_tutorial.pdf in (JavaPrep\JPA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For examples </t>
+  </si>
+  <si>
+    <t>refer 4_jpa_examples.txt in (JavaPrep\JPA)</t>
+  </si>
+  <si>
+    <t>Fetching ways</t>
+  </si>
+  <si>
+    <t>1. Eager fetch
+2. Lazy fetch</t>
+  </si>
+  <si>
+    <t>Eager fetch</t>
+  </si>
+  <si>
+    <t>In eager fetching, related child objects are uploaded automatically while fetching a particular record</t>
+  </si>
+  <si>
+    <t>Lazy fetch</t>
+  </si>
+  <si>
+    <t>In lazy fetching, related objects are not uploaded automatically unless you specifically request for them. First of all, it checks the availability of related objects and notifies. Later, if you call any of the getter method of that entity, then it fetches all the records</t>
+  </si>
+  <si>
+    <t>Criteria History</t>
+  </si>
+  <si>
+    <t>Criteria is included in all the versions of JPA, therefore each step of Criteria is notified in the specifications of JPA
+1. In JPA 2.0, Criteria query API, standardization of queries are developed
+2. In JPA 2.1, Criteria update and delete (bulk update and delete) are included</t>
+  </si>
+  <si>
+    <t>Criteria classes will present in</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>javax.persistence.criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package</t>
+    </r>
+  </si>
+  <si>
+    <t>Lombok</t>
+  </si>
+  <si>
+    <t>In order to avoid writing too much boilerplate code for the entity classes you can use lombok, which automatically generates appropriate getters, setters, toString() and hashCode() methods for the fields in a Java class.</t>
+  </si>
+  <si>
+    <t>http://www.eclipse.org/eclipselink/</t>
+  </si>
+  <si>
+    <t>Eclipselink official website</t>
+  </si>
+  <si>
+    <t>JPQL - Java Persistence Query Language</t>
+  </si>
+  <si>
+    <t>What's wrong with this JPQL query?</t>
+  </si>
+  <si>
+    <t>JPA 1.0 introduced JPQL, a powerful query language that's considered a major reason for JPA's popularity. However, JPQL — being a string-based query language with a definite grammar — has a few limitations. To understand one of the major limitations, consider the simple code fragment in Listing 1, which executes a JPQL query to select the list of Persons older than 20 years:</t>
+  </si>
+  <si>
+    <t>1. A JPQL query is specified as a String (line 2).
+2. EntityManager is the factory that constructs an executable query instance given a JPQL string (line 3).
+3. The result of query execution consists of the elements of an untyped java.util.List</t>
+  </si>
+  <si>
+    <t>Analysis on above JPQL code</t>
+  </si>
+  <si>
+    <t>EntityManager em = ...;
+String jpql = "select p from Person p where p.age &gt; 20";
+Query query = em.createQuery(jpql);
+List result = query.getResultList();</t>
+  </si>
+  <si>
+    <t>Criteria API</t>
+  </si>
+  <si>
+    <t>Advantages of Criteria</t>
+  </si>
+  <si>
+    <t>Criteria API is that it prohibits the construction of queries that are syntactically incorrect.</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1159,12 +1995,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1185,16 +2030,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1206,27 +2045,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1236,23 +2054,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,6 +2070,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1566,7 +2425,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1587,7 +2446,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1597,13 +2456,16 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="Hibernate!A1" display="Hibernate"/>
     <hyperlink ref="A3" location="Eclipselink!A1" display="Eclipselink"/>
+    <hyperlink ref="A4" location="JPA!A1" display="JPA"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1625,676 +2487,676 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="12" customFormat="1">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:2" s="10" customFormat="1">
+      <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="12" customFormat="1" ht="120">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:2" s="10" customFormat="1" ht="120">
+      <c r="A20" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="12" customFormat="1">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:2" s="10" customFormat="1">
+      <c r="A22" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="120">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="20"/>
-      <c r="B42" s="26" t="s">
+      <c r="A42" s="34"/>
+      <c r="B42" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="20"/>
-      <c r="B44" s="26" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="33" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="20"/>
-      <c r="B47" s="26" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
-      <c r="A48" s="20"/>
-      <c r="B48" s="26" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="31"/>
+      <c r="B53" s="36"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="13"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="31"/>
+      <c r="B62" s="36"/>
     </row>
     <row r="63" spans="1:2" ht="90">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="75">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="75">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="30"/>
-      <c r="B75" s="29" t="s">
+      <c r="A75" s="29"/>
+      <c r="B75" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="165">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="30"/>
-      <c r="B79" s="29" t="s">
+      <c r="A79" s="29"/>
+      <c r="B79" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="105">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="225">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="195">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="135">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="120">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="27"/>
+      <c r="B85" s="33"/>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="180">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="135">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2319,11 +3181,11 @@
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="19"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="19"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2">
@@ -2339,11 +3201,11 @@
       <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="21"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="21"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2">
@@ -2399,15 +3261,21 @@
       <c r="B118" s="5"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="18"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="18"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A41:A42"/>
@@ -2416,12 +3284,6 @@
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -2435,79 +3297,557 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="79.28515625" customWidth="1"/>
-    <col min="2" max="2" width="107.28515625" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
+      <c r="B7" s="39"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="14" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="14" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="13" spans="1:2" s="14" customFormat="1">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="23"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11"/>
+      <c r="B14" s="39"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B20" s="39"/>
+    </row>
+    <row r="21" spans="1:2" ht="90">
+      <c r="A21" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="165">
+      <c r="A22" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="255">
+      <c r="A23" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="225">
+      <c r="A24" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="150">
+      <c r="A25" s="40"/>
+      <c r="B25" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="165">
+      <c r="A26" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="195">
+      <c r="A27" s="37"/>
+      <c r="B27" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="39"/>
+    </row>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32" s="42"/>
+      <c r="B32" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="39"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Eclipselink!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A9" r:id="rId2"/>
+    <hyperlink ref="A10" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="81.140625" customWidth="1"/>
+    <col min="2" max="2" width="105.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="39"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="39"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="39"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="39"/>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90">
+      <c r="A18" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="105">
+      <c r="A25" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="90">
+      <c r="A26" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="90">
+      <c r="A29" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="45">
+      <c r="A36" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45">
+      <c r="A37" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45">
+      <c r="A42" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="JPA!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="B28" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="250">
   <si>
     <t>Topics</t>
   </si>
@@ -1817,6 +1817,18 @@
   </si>
   <si>
     <t>Criteria API is that it prohibits the construction of queries that are syntactically incorrect.</t>
+  </si>
+  <si>
+    <t>Java Persistence API (JPA) 2.1 [Course]</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>Basic Definitions</t>
+  </si>
+  <si>
+    <t>Pluralsight - Java Persistence API (JPA) 2.1</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2079,6 +2091,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2109,23 +2125,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2495,10 +2508,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8"/>
@@ -2521,10 +2534,10 @@
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
@@ -2547,10 +2560,10 @@
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -2761,7 +2774,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -2769,13 +2782,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="34"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="36" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -2783,13 +2796,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="34"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -2797,19 +2810,19 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="34"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="34"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
-      <c r="A48" s="34"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="17" t="s">
         <v>88</v>
       </c>
@@ -2847,10 +2860,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="36"/>
+      <c r="B53" s="38"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="22" t="s">
@@ -2913,10 +2926,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="36"/>
+      <c r="B62" s="38"/>
     </row>
     <row r="63" spans="1:2" ht="90">
       <c r="A63" s="13" t="s">
@@ -3007,7 +3020,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -3015,7 +3028,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="29"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="18" t="s">
         <v>41</v>
       </c>
@@ -3037,7 +3050,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -3045,7 +3058,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="29"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="18" t="s">
         <v>34</v>
       </c>
@@ -3091,10 +3104,10 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="35"/>
     </row>
     <row r="86" spans="1:2" ht="90">
       <c r="A86" s="11" t="s">
@@ -3181,11 +3194,11 @@
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="30"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="30"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2">
@@ -3201,11 +3214,11 @@
       <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="31"/>
+      <c r="A104" s="33"/>
       <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="31"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2">
@@ -3261,11 +3274,11 @@
       <c r="B118" s="5"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="28"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="28"/>
+      <c r="A121" s="30"/>
       <c r="B121" s="5"/>
     </row>
   </sheetData>
@@ -3299,9 +3312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3319,19 +3332,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
@@ -3365,10 +3378,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14"/>
@@ -3380,10 +3393,10 @@
       <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="14" t="s">
@@ -3410,7 +3423,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="225">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="44" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -3418,13 +3431,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="40"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="165">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="43" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3432,7 +3445,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="195">
-      <c r="A27" s="37"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="11" t="s">
         <v>161</v>
       </c>
@@ -3446,16 +3459,16 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="40"/>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="27" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3474,10 +3487,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="40"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
@@ -3512,11 +3525,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3534,28 +3547,36 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="39"/>
+      <c r="A16" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
@@ -3837,18 +3858,27 @@
         <v>232</v>
       </c>
     </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A53:B53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JPA!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="B28" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://app.pluralsight.com/library/courses/java-persistence-api-21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="256">
   <si>
     <t>Topics</t>
   </si>
@@ -1829,6 +1829,30 @@
   </si>
   <si>
     <t>Pluralsight - Java Persistence API (JPA) 2.1</t>
+  </si>
+  <si>
+    <t>What is JPA?</t>
+  </si>
+  <si>
+    <t>1. It is a specification
+2. JPA 2.1 specification in JSR 338</t>
+  </si>
+  <si>
+    <t>JPA implementations</t>
+  </si>
+  <si>
+    <t>1. Eclipselink
+2. Hibernate
+3. Apache open JPA</t>
+  </si>
+  <si>
+    <t>main package in JPA</t>
+  </si>
+  <si>
+    <t>1. javax.persistence - Core API
+2. javax.persistence.criteria - Criteria API
+3. javax.persistence.metamodel - Metamodel API
+4. javax.persistence.spi - SPI for JPA Providers</t>
   </si>
 </sst>
 </file>
@@ -3525,11 +3549,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3863,6 +3887,30 @@
         <v>249</v>
       </c>
       <c r="B53" s="40"/>
+    </row>
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45">
+      <c r="A55" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>255</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Hibernate" sheetId="2" r:id="rId2"/>
     <sheet name="Eclipselink" sheetId="3" r:id="rId3"/>
     <sheet name="JPA" sheetId="4" r:id="rId4"/>
+    <sheet name="MyBatis" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="288">
   <si>
     <t>Topics</t>
   </si>
@@ -1853,6 +1854,174 @@
 2. javax.persistence.criteria - Criteria API
 3. javax.persistence.metamodel - Metamodel API
 4. javax.persistence.spi - SPI for JPA Providers</t>
+  </si>
+  <si>
+    <t>MyBatis</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/mybatis/index.htm</t>
+  </si>
+  <si>
+    <t>Tutorialspoint</t>
+  </si>
+  <si>
+    <t>What is MyBatis</t>
+  </si>
+  <si>
+    <t>MyBatis is an open source, lightweight, persistence framework. It is an alternative to JDBC and Hibernate. It automates the mapping between SQL databases and objects in Java, .NET, and Ruby on Rails. The mappings are decoupled from the application logic by packaging the SQL statements in XML configuration files</t>
+  </si>
+  <si>
+    <t>It was formerly known as IBATIS, which was started by Clinton Begin in 2002. MyBatis 3 is the latest version. It is a total makeover of IBATIS.
+A significant difference between MyBatis and other persistence frameworks is that MyBatis emphasizes the use of SQL, while other frameworks such as Hibernate typically uses a custom query language i.e. the Hibernate Query Language (HQL) or Enterprise JavaBeans Query Language (EJB QL).</t>
+  </si>
+  <si>
+    <t>MYBATIS Design Features</t>
+  </si>
+  <si>
+    <t>1. Simplicity: MyBatis is widely regarded as one of the simplest persistence frameworks available today
+2. Fast Development − MyBatis does all it can to facilitate hyper-fast development
+3. Portability − MyBatis can be implemented for nearly any language or platform such as Java, Ruby, and C# for Microsoft .NET
+4. Independent Interfaces − MyBatis provides database-independent interfaces and APIs that help the rest of the application remain independent of any persistence-related resources
+5. Open source− MyBatis is free and an open source software</t>
+  </si>
+  <si>
+    <t>Advantages of MYBATIS</t>
+  </si>
+  <si>
+    <t>1. Supports stored procedures − MyBatis encapsulates SQL in the form of stored procedures so that business logic can be kept out of the database, and the application is more portable and easier to deploy and test
+2. Supports inline SQL − No pre-compiler is needed, and you can have the full access to all of the features of SQL
+3. Supports dynamic SQL − MyBatis provides features for dynamic building SQL queries based on parameters
+4. Supports O/RM − MyBatis supports many of the same features as an O/RM tool, such as lazy loading, join fetching, caching, runtime code generation, and inheritance</t>
+  </si>
+  <si>
+    <t>Configuration xml</t>
+  </si>
+  <si>
+    <t>To communicate with the database, we have to configure the details of the database. Configuration XML is the file used for the XML-based configuration. By using this file, you can configure various elements</t>
+  </si>
+  <si>
+    <t>Sample MyBatis Configuration xml file</t>
+  </si>
+  <si>
+    <t>&lt;dataSource type="POOLED"&gt;
+    &lt;property name="driver" value="org.h2.Driver"/&gt;
+    &lt;property name="url" value="jdbc:h2:file:E:/Backup/JavaPrep/practiceProjects/MyBatisProjects/MyBatisPractice/src/main/resources/db;MV_STORE=FALSE"/&gt;
+    &lt;property name="username" value="admin"/&gt;
+    &lt;property name="password" value="admin"/&gt;
+   &lt;/dataSource&gt;
+  &lt;/environment&gt;
+ &lt;/environments&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;mappers&gt;
+  &lt;mapper resource="mappers/studentMapper.xml"/&gt;
+ &lt;/mappers&gt;
+&lt;/configuration&gt;</t>
+  </si>
+  <si>
+    <t>environments tag</t>
+  </si>
+  <si>
+    <t>transactionManager tag</t>
+  </si>
+  <si>
+    <r>
+      <t>Within the environments element, we configure the environment of the database that we use in our application. In MyBatis, you can connect to multiple databases by configuring multiple environment elements. To configure the environment, we are provided with two sub tags namely</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> transactionManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dataSource</t>
+    </r>
+  </si>
+  <si>
+    <t>MyBatis supports two transaction managers namely JDBC and MANAGED
+If we use the transaction manager of type JDBC, the application is responsible for the transaction management operations, such as, commit, roll-back, etc...
+If we use the transaction manager of type MANAGED, the application server is responsible to manage the connection life cycle. It is generally used with the Web Applications</t>
+  </si>
+  <si>
+    <t>dataSource tag</t>
+  </si>
+  <si>
+    <t>It is used to configure the connection properties of the database, such as driver-name, url, user-name, and password of the database that we want to connect. It is of three types namely −
+UNPOOLED − For the dataSource type UNPOOLED, MyBatis simply opens and closes a connection for every database operation. It is a bit slower and generally used for the simple applications.
+POOLED − For the dataSource type POOLED, MyBatis will maintain a database connection pool. And, for every database operation, MyBatis uses one of these connections, and returns them to the pool after the completion of the operation. It reduces the initial connection and authentication time that required to create a new connection.
+JNDI − For the dataSource type JNDI, MyBatis will get the connection from the JNDI dataSource.</t>
+  </si>
+  <si>
+    <t>typeAliases tag</t>
+  </si>
+  <si>
+    <t>Instead of specifying the absolute class name everywhere, we can use typeAliases, a shorter name for a Java type. Suppose, we have a class Student in Student.java file within the package named tutorials_point.com.mybatis_examples, then the absolute class name will be tutorials_point.com.mybatis_examples.Student. Instead of using this name to address the class every time, you can declare an alias to that class as shown below</t>
+  </si>
+  <si>
+    <t>&lt;typeAliases&gt;
+   &lt;typeAlias alias = "Student" type = "mybatis.Student"/&gt;
+&lt;/typeAliases&gt;</t>
+  </si>
+  <si>
+    <t>mappers tag</t>
+  </si>
+  <si>
+    <t>Mapper XML file is the important file, which contains the mapped SQL statements. Mapper’s element is used to configure the location of these mappers xml files in the configuration file of MyBatis (this element contains four attributes namely resources, url, class, and name)</t>
+  </si>
+  <si>
+    <t>For example, the name of the mapper xml file is Student.xml and it resides in the package named as mybatis,, then you can configure the mapper tag as shown below</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;mappers&gt;
+   &lt;mapper resource = "mybatis/Student.xml"/&gt;
+&lt;/mappers&gt;</t>
+  </si>
+  <si>
+    <t>The attribute resource points to the classpath of the XML file.
+The attribute url points to the fully qualified path of the xml file.
+We can use mapper interfaces instead of xml file, the attribute class points to the class-path of the mapper interface.
+The attribute name points to the package name of the mapper interface. In the example provided in this chapter, we have specified the class path of the mapper XML using the resource attribute.</t>
+  </si>
+  <si>
+    <t>http://www.mybatis.org/mybatis-3/configuration.html</t>
+  </si>
+  <si>
+    <t>MyBatis Configuration Properties</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;!DOCTYPE configuration PUBLIC "-//mybatis.org//DTD Config 3.0//EN" "http://mybatis.org/dtd/mybatis-3-config.dtd"&gt;
+&lt;configuration&gt; 
+&lt;typeAliases&gt;
+  &lt;typeAlias type="com.mybatis.model.Student" alias="StudentAlias"/&gt;
+ &lt;/typeAliases&gt;
+ &lt;environments default="development"&gt;
+  &lt;environment id="development"&gt;
+   &lt;transactionManager type="JDBC"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2119,6 +2288,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2163,6 +2334,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2458,11 +2633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2497,12 +2672,18 @@
         <v>166</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="Hibernate!A1" display="Hibernate"/>
     <hyperlink ref="A3" location="Eclipselink!A1" display="Eclipselink"/>
     <hyperlink ref="A4" location="JPA!A1" display="JPA"/>
+    <hyperlink ref="A5" location="MyBatis!A1" display="MyBatis"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2532,10 +2713,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8"/>
@@ -2558,10 +2739,10 @@
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
@@ -2584,10 +2765,10 @@
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -2798,7 +2979,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="38" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -2806,13 +2987,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="36"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -2820,13 +3001,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="36"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="38" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -2834,19 +3015,19 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="36"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="36"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
-      <c r="A48" s="36"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="17" t="s">
         <v>88</v>
       </c>
@@ -2884,10 +3065,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="40"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="22" t="s">
@@ -2950,10 +3131,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="40"/>
     </row>
     <row r="63" spans="1:2" ht="90">
       <c r="A63" s="13" t="s">
@@ -3044,7 +3225,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -3052,7 +3233,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="31"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="18" t="s">
         <v>41</v>
       </c>
@@ -3074,7 +3255,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -3082,7 +3263,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="31"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="18" t="s">
         <v>34</v>
       </c>
@@ -3128,10 +3309,10 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="35"/>
+      <c r="B85" s="37"/>
     </row>
     <row r="86" spans="1:2" ht="90">
       <c r="A86" s="11" t="s">
@@ -3218,11 +3399,11 @@
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="32"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="32"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2">
@@ -3238,11 +3419,11 @@
       <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="33"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="33"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2">
@@ -3298,11 +3479,11 @@
       <c r="B118" s="5"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="30"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="30"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="5"/>
     </row>
   </sheetData>
@@ -3356,19 +3537,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="42"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
@@ -3402,10 +3583,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="42"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14"/>
@@ -3417,10 +3598,10 @@
       <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="42"/>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="14" t="s">
@@ -3447,7 +3628,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="225">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="46" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -3455,13 +3636,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="44"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="165">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="45" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3469,7 +3650,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="195">
-      <c r="A27" s="43"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
         <v>161</v>
       </c>
@@ -3483,13 +3664,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="42"/>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>238</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -3497,7 +3678,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="42"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="11" t="s">
         <v>242</v>
       </c>
@@ -3511,10 +3692,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="40"/>
+      <c r="B37" s="42"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
@@ -3551,9 +3732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3571,10 +3752,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -3585,22 +3766,22 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="42"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="42"/>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
@@ -3883,10 +4064,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="B53" s="40"/>
+      <c r="B53" s="42"/>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="27" t="s">
@@ -3929,4 +4110,204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="78.140625" customWidth="1"/>
+    <col min="2" max="2" width="109" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="42"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="42"/>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="46"/>
+      <c r="B13" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="105">
+      <c r="A14" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="90">
+      <c r="A15" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="180">
+      <c r="A17" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="150">
+      <c r="A18" s="46"/>
+      <c r="B18" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="46"/>
+      <c r="B19" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="105">
+      <c r="A21" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="165">
+      <c r="A22" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="75">
+      <c r="A23" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="45"/>
+      <c r="B24" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="45"/>
+      <c r="B26" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45">
+      <c r="A27" s="45"/>
+      <c r="B27" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="45"/>
+      <c r="B28" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B29" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2290,6 +2290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2337,7 +2338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2693,9 +2693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2713,10 +2713,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8"/>
@@ -2739,10 +2739,10 @@
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="32"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
@@ -2765,10 +2765,10 @@
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -2979,7 +2979,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="39" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -2987,13 +2987,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="38"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="39" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -3001,13 +3001,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="38"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="39" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -3015,19 +3015,19 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="38"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="38"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
-      <c r="A48" s="38"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="17" t="s">
         <v>88</v>
       </c>
@@ -3065,10 +3065,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="40"/>
+      <c r="B53" s="41"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="22" t="s">
@@ -3131,10 +3131,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="40"/>
+      <c r="B62" s="41"/>
     </row>
     <row r="63" spans="1:2" ht="90">
       <c r="A63" s="13" t="s">
@@ -3225,7 +3225,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -3233,7 +3233,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="33"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="18" t="s">
         <v>41</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -3263,7 +3263,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="33"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="18" t="s">
         <v>34</v>
       </c>
@@ -3309,10 +3309,10 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="37"/>
+      <c r="B85" s="38"/>
     </row>
     <row r="86" spans="1:2" ht="90">
       <c r="A86" s="11" t="s">
@@ -3399,11 +3399,11 @@
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="34"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="34"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2">
@@ -3419,11 +3419,11 @@
       <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="35"/>
+      <c r="A104" s="36"/>
       <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="35"/>
+      <c r="A105" s="36"/>
       <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2">
@@ -3479,11 +3479,11 @@
       <c r="B118" s="5"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="32"/>
+      <c r="A120" s="33"/>
       <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="32"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="5"/>
     </row>
   </sheetData>
@@ -3537,19 +3537,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
@@ -3583,10 +3583,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14"/>
@@ -3598,10 +3598,10 @@
       <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="43"/>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="14" t="s">
@@ -3628,7 +3628,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="225">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="47" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -3636,13 +3636,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="46"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="165">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="46" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3650,7 +3650,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="195">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="11" t="s">
         <v>161</v>
       </c>
@@ -3664,13 +3664,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="43"/>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="44" t="s">
         <v>238</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -3678,7 +3678,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="11" t="s">
         <v>242</v>
       </c>
@@ -3692,10 +3692,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="43"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
@@ -3752,10 +3752,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -3766,22 +3766,22 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="43"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="43"/>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
@@ -4064,10 +4064,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="43"/>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="27" t="s">
@@ -4116,7 +4116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
@@ -4136,10 +4136,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4150,19 +4150,19 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="43"/>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>259</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4170,7 +4170,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="11" t="s">
         <v>261</v>
       </c>
@@ -4200,7 +4200,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="180">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="47" t="s">
         <v>268</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4208,19 +4208,19 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="150">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="11" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="31" t="s">
         <v>271</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -4228,7 +4228,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="105">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="31" t="s">
         <v>272</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -4236,7 +4236,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="165">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="31" t="s">
         <v>275</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -4244,7 +4244,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>277</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -4252,13 +4252,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="11" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
         <v>280</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -4266,25 +4266,25 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="45"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="11" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="11" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="31" t="s">
         <v>286</v>
       </c>
       <c r="B29" s="26" t="s">

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="315">
   <si>
     <t>Topics</t>
   </si>
@@ -2022,6 +2022,111 @@
  &lt;environments default="development"&gt;
   &lt;environment id="development"&gt;
    &lt;transactionManager type="JDBC"/&gt;</t>
+  </si>
+  <si>
+    <t>Mapper xml file</t>
+  </si>
+  <si>
+    <t>Mapper XML is an important file in MyBatis, which contains a set of statements to configure various SQL statements such as select, insert, update, and delete. These statements are known as Mapped Statements or Mapped SQL Statements.</t>
+  </si>
+  <si>
+    <t>All the statements have unique id. To execute any of these statements you just need to pass the appropriate id to the methods in Java Application</t>
+  </si>
+  <si>
+    <t>mapper XML file prevents the burden of writing SQL statements repeatedly in the application. In comparison to JDBC, almost 95% of the code is reduced using Mapper XML file in MyBatis</t>
+  </si>
+  <si>
+    <t>All these Mapped SQL statements are resided within the element named&lt;mapper&gt;. This element contains an attribute called ‘namespace’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;mapper namespace = "Student"&gt;
+   //mapped statements and result maps
+&lt;mapper&gt; </t>
+  </si>
+  <si>
+    <t>Insert tag</t>
+  </si>
+  <si>
+    <t>In MyBatis, to insert values into the table, we have to configure the insert mapped query. MyBatis provides various attributes for insert mapper, but largely we use id and parameter type</t>
+  </si>
+  <si>
+    <t>&lt;insert id = "insert" parameterType = "Student"&gt;
+   INSERT INTO STUDENT1 (NAME, BRANCH, PERCENTAGE, PHONE, EMAIL ) 
+   VALUES (#{name}, #{branch}, #{percentage}, #{phone}, #{email});    
+&lt;/insert&gt;</t>
+  </si>
+  <si>
+    <t>id is unique identifier used to identify the insert statement. On the other hand, parametertype is the class name or the alias of the parameter that will be passed into the statement</t>
+  </si>
+  <si>
+    <t>update tag</t>
+  </si>
+  <si>
+    <t>To update values of an existing record using MyBatis, the mapped query update is configured. The attributes of update mapped query are same as the insert mapped query</t>
+  </si>
+  <si>
+    <t>&lt;update id = "update" parameterType = "Student"&gt;
+   UPDATE STUDENT SET EMAIL = #{email}, NAME = #{name}, BRANCH = #{branch}, PERCENTAGE = #{percentage}, PHONE = #{phone} WHERE ID = #{id};
+&lt;/update&gt;</t>
+  </si>
+  <si>
+    <t>session.insert("Student.insert", student);</t>
+  </si>
+  <si>
+    <t>session.update("Student.update",student);</t>
+  </si>
+  <si>
+    <t>Delete tag</t>
+  </si>
+  <si>
+    <t>To delete the values of an existing record using MyBatis, the mapped query ‘delete’ is configured. The attributes of ‘delete’ mapped query are same as the insert and update mapped queries</t>
+  </si>
+  <si>
+    <t>&lt;delete id = "deleteById" parameterType = "int"&gt;
+   DELETE from STUDENT WHERE ID = #{id};
+&lt;/delete&gt;</t>
+  </si>
+  <si>
+    <t>session.delete("Student.deleteById", 18);</t>
+  </si>
+  <si>
+    <t>Selete tag</t>
+  </si>
+  <si>
+    <t>To retrieve data, ‘select’ mapper statement is used</t>
+  </si>
+  <si>
+    <t>&lt;select id = "getAll" resultMap = "result"&gt;
+   SELECT * FROM STUDENT; 
+&lt;/select&gt;</t>
+  </si>
+  <si>
+    <t>You can retrieve the data returned by the select query using the method selectList()</t>
+  </si>
+  <si>
+    <t>List&lt;Student&gt; list = session.selectList("Student.getAll");</t>
+  </si>
+  <si>
+    <t>resultMaps</t>
+  </si>
+  <si>
+    <t>It is the most important and powerful elements in MyBatis. The results of SQL SELECT statements are mapped to Java objects (beans/POJO). Once the result map is defined, we can refer these from several SELECT statements. Following is the example of result Map query; it maps the results of the select queries to the Student class</t>
+  </si>
+  <si>
+    <t>&lt;resultMap id = "result" type = "Student"&gt;
+   &lt;result property = "id" column = "ID"/&gt;
+   &lt;result property = "name" column = "NAME"/&gt;
+   &lt;result property = "branch" column = "BRANCH"/&gt;
+   &lt;result property = "percentage" column = "PERCENTAGE"/&gt;
+   &lt;result property = "phone" column = "PHONE"/&gt;
+   &lt;result property = "email" column = "EMAIL"/&gt;
+&lt;/resultMap&gt;
+&lt;select id = "getAll" resultMap = "result"&gt;
+   SELECT * FROM STUDENT; 
+&lt;/select&gt;
+&lt;select id = "getById" parameterType = "int" resultMap = "result"&gt;
+   SELECT * FROM STUDENT WHERE ID = #{id};
+&lt;/select&gt;</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2291,6 +2396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2693,9 +2799,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2713,10 +2819,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8"/>
@@ -2739,10 +2845,10 @@
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
@@ -2765,10 +2871,10 @@
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -2979,7 +3085,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -2987,13 +3093,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="39"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="40" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -3001,13 +3107,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="39"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="40" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -3015,19 +3121,19 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="39"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="39"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
-      <c r="A48" s="39"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="17" t="s">
         <v>88</v>
       </c>
@@ -3065,10 +3171,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="41"/>
+      <c r="B53" s="42"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="22" t="s">
@@ -3131,10 +3237,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="41"/>
+      <c r="B62" s="42"/>
     </row>
     <row r="63" spans="1:2" ht="90">
       <c r="A63" s="13" t="s">
@@ -3225,7 +3331,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -3233,7 +3339,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="34"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="18" t="s">
         <v>41</v>
       </c>
@@ -3255,7 +3361,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -3263,7 +3369,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="34"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="18" t="s">
         <v>34</v>
       </c>
@@ -3309,10 +3415,10 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="38"/>
+      <c r="B85" s="39"/>
     </row>
     <row r="86" spans="1:2" ht="90">
       <c r="A86" s="11" t="s">
@@ -3399,11 +3505,11 @@
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="35"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="35"/>
+      <c r="A100" s="36"/>
       <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2">
@@ -3419,11 +3525,11 @@
       <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="36"/>
+      <c r="A104" s="37"/>
       <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="36"/>
+      <c r="A105" s="37"/>
       <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2">
@@ -3479,11 +3585,11 @@
       <c r="B118" s="5"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="33"/>
+      <c r="A120" s="34"/>
       <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="33"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="5"/>
     </row>
   </sheetData>
@@ -3537,19 +3643,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
@@ -3583,10 +3689,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14"/>
@@ -3598,10 +3704,10 @@
       <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="44"/>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="14" t="s">
@@ -3628,7 +3734,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="225">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="48" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -3636,13 +3742,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="47"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="165">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="47" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3650,7 +3756,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="195">
-      <c r="A27" s="46"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="11" t="s">
         <v>161</v>
       </c>
@@ -3664,13 +3770,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="44"/>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>238</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -3678,7 +3784,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="45"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="11" t="s">
         <v>242</v>
       </c>
@@ -3692,10 +3798,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="43"/>
+      <c r="B37" s="44"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
@@ -3752,10 +3858,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -3766,22 +3872,22 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
@@ -4064,10 +4170,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="B53" s="43"/>
+      <c r="B53" s="44"/>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="27" t="s">
@@ -4114,11 +4220,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4136,10 +4242,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4150,19 +4256,19 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>259</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4170,7 +4276,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="11" t="s">
         <v>261</v>
       </c>
@@ -4200,7 +4306,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="180">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="48" t="s">
         <v>268</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4208,13 +4314,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="150">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="11" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="11" t="s">
         <v>270</v>
       </c>
@@ -4244,7 +4350,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="47" t="s">
         <v>277</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -4252,13 +4358,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="46"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="11" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>280</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -4266,19 +4372,19 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="46"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="11" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="46"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="11" t="s">
         <v>284</v>
       </c>
@@ -4291,8 +4397,152 @@
         <v>285</v>
       </c>
     </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="47"/>
+      <c r="B31" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="47"/>
+      <c r="B32" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="47"/>
+      <c r="B33" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="47"/>
+      <c r="B34" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="60">
+      <c r="A36" s="48"/>
+      <c r="B36" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="48"/>
+      <c r="B37" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="32" customFormat="1">
+      <c r="A38" s="48"/>
+      <c r="B38" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="48"/>
+      <c r="B40" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="48"/>
+      <c r="B41" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="48"/>
+      <c r="B43" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="48"/>
+      <c r="B44" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="48"/>
+      <c r="B46" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="48"/>
+      <c r="B47" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="48"/>
+      <c r="B48" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="240">
+      <c r="A50" s="48"/>
+      <c r="B50" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3838,9 +3838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4222,9 +4222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4537,12 +4537,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>
@@ -4550,6 +4544,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="Eclipselink" sheetId="3" r:id="rId3"/>
     <sheet name="JPA" sheetId="4" r:id="rId4"/>
     <sheet name="MyBatis" sheetId="5" r:id="rId5"/>
+    <sheet name="Lucene" sheetId="6" r:id="rId6"/>
+    <sheet name="Solr" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="356">
   <si>
     <t>Topics</t>
   </si>
@@ -2127,6 +2129,136 @@
 &lt;select id = "getById" parameterType = "int" resultMap = "result"&gt;
    SELECT * FROM STUDENT WHERE ID = #{id};
 &lt;/select&gt;</t>
+  </si>
+  <si>
+    <t>Lucene</t>
+  </si>
+  <si>
+    <t>Lucene plays role in steps 2 to step 7 mentioned above and provides classes to do the required operations. In nutshell, lucene works as a heart of any search application and provides the vital operations pertaining to indexing and searching. Acquiring contents and displaying the results is left for the application part to handle.</t>
+  </si>
+  <si>
+    <t>Lucene's role in search application</t>
+  </si>
+  <si>
+    <t>Once result is received the application should decide how to show the results to the user using User Interface. How much information is to be shown at first look and so on.</t>
+  </si>
+  <si>
+    <t>Render Results</t>
+  </si>
+  <si>
+    <t>Using query object, index database is then checked to get the relevant details and the content documents</t>
+  </si>
+  <si>
+    <t>Search Query</t>
+  </si>
+  <si>
+    <t>Once user made a request to search a text, application should prepare a Query object using that text which can be used to inquire index database to get the relevant details</t>
+  </si>
+  <si>
+    <t>Build Query</t>
+  </si>
+  <si>
+    <t>User Interface for Search</t>
+  </si>
+  <si>
+    <t>Once documents are built and analyzed, next step is to index them so that this document can be retrived based on certain keys instead of whole contents of the document. Indexing process is similar to indexes in the end of a book where common words are shown with their page numbers so that these words can be tracked quickly instead of searching the complete book</t>
+  </si>
+  <si>
+    <t>Indexing the document</t>
+  </si>
+  <si>
+    <t>Before indexing process to start, the document is to be analyzed as which part of the text is a candidate to be indexed. This process is called analyzing the document.</t>
+  </si>
+  <si>
+    <t>Analyze the document</t>
+  </si>
+  <si>
+    <t>Next step is to build the document(s) from the raw contents which search application can understands and interpret easily.</t>
+  </si>
+  <si>
+    <t>Build the document</t>
+  </si>
+  <si>
+    <t>First step of any search application is to collect the target contents on which search are to be conducted.</t>
+  </si>
+  <si>
+    <t>Acquire Raw Content</t>
+  </si>
+  <si>
+    <t>1. Acquire Raw Content
+2. Build the document
+3. Analyze the document
+4. Indexing the document
+5. User Interface for Search
+6. Build Query
+7. Search Query
+8. Render Results</t>
+  </si>
+  <si>
+    <t>How Search Application works?</t>
+  </si>
+  <si>
+    <t>Once a database of indexes is ready then application can make any search. To facilitate user to make a search, application must provide a user a mean or user interface where a user can enter text and start the search process</t>
+  </si>
+  <si>
+    <t>Tutorials point</t>
+  </si>
+  <si>
+    <t>http://www.tutorialspoint.com/lucene/index.htm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vLEvmZ5eEz0&amp;index=35&amp;list=WL</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>what is lucene</t>
+  </si>
+  <si>
+    <t>java search library</t>
+  </si>
+  <si>
+    <t>Solr</t>
+  </si>
+  <si>
+    <t>Lucene indexing flow</t>
+  </si>
+  <si>
+    <t>images/lucene/1-indexing-flow.JPG</t>
+  </si>
+  <si>
+    <t>Lucene creating index</t>
+  </si>
+  <si>
+    <t>images/lucene/2-writing-index.JPG</t>
+  </si>
+  <si>
+    <t>Lucene searching index</t>
+  </si>
+  <si>
+    <t>images/lucene/3-searching-index.JPG</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5444z-L2V2A&amp;list=WL&amp;index=34</t>
+  </si>
+  <si>
+    <t>Lucene history</t>
+  </si>
+  <si>
+    <t>images/lucene/4-lucene-history.JPG</t>
+  </si>
+  <si>
+    <t>Getting Started with Enterprise Search Using Apache Solr</t>
+  </si>
+  <si>
+    <t>Solr is search framework built on top of lucene. Wrapper on top of Lucene</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>images/lucene/5-architecture.JPG</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2396,6 +2528,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2739,11 +2877,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2783,6 +2921,16 @@
         <v>256</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
@@ -2790,6 +2938,8 @@
     <hyperlink ref="A3" location="Eclipselink!A1" display="Eclipselink"/>
     <hyperlink ref="A4" location="JPA!A1" display="JPA"/>
     <hyperlink ref="A5" location="MyBatis!A1" display="MyBatis"/>
+    <hyperlink ref="A6" location="Lucene!A1" display="Lucene"/>
+    <hyperlink ref="A7" location="Solr!A1" display="Solr"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2819,10 +2969,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8"/>
@@ -2845,10 +2995,10 @@
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
@@ -2871,10 +3021,10 @@
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="37"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -3085,7 +3235,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="44" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -3093,13 +3243,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="40"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -3107,13 +3257,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="40"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="44" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -3121,19 +3271,19 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="40"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="40"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
-      <c r="A48" s="40"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="17" t="s">
         <v>88</v>
       </c>
@@ -3171,10 +3321,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="46"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="22" t="s">
@@ -3237,10 +3387,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="42"/>
+      <c r="B62" s="46"/>
     </row>
     <row r="63" spans="1:2" ht="90">
       <c r="A63" s="13" t="s">
@@ -3331,7 +3481,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -3339,7 +3489,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="35"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="18" t="s">
         <v>41</v>
       </c>
@@ -3361,7 +3511,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -3369,7 +3519,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="35"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="18" t="s">
         <v>34</v>
       </c>
@@ -3415,10 +3565,10 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="39"/>
+      <c r="B85" s="43"/>
     </row>
     <row r="86" spans="1:2" ht="90">
       <c r="A86" s="11" t="s">
@@ -3505,11 +3655,11 @@
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="36"/>
+      <c r="A99" s="40"/>
       <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="36"/>
+      <c r="A100" s="40"/>
       <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2">
@@ -3525,11 +3675,11 @@
       <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="37"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="37"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2">
@@ -3585,11 +3735,11 @@
       <c r="B118" s="5"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="34"/>
+      <c r="A120" s="38"/>
       <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="34"/>
+      <c r="A121" s="38"/>
       <c r="B121" s="5"/>
     </row>
   </sheetData>
@@ -3643,19 +3793,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
@@ -3689,10 +3839,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14"/>
@@ -3704,10 +3854,10 @@
       <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="14" t="s">
@@ -3734,7 +3884,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="225">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="52" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -3742,13 +3892,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="48"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="165">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="51" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3756,7 +3906,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="195">
-      <c r="A27" s="47"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="11" t="s">
         <v>161</v>
       </c>
@@ -3770,13 +3920,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="48"/>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="49" t="s">
         <v>238</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -3784,7 +3934,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="46"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="11" t="s">
         <v>242</v>
       </c>
@@ -3798,10 +3948,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="44"/>
+      <c r="B37" s="48"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
@@ -3838,7 +3988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
@@ -3858,10 +4008,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -3872,22 +4022,22 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
@@ -4170,10 +4320,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B53" s="44"/>
+      <c r="B53" s="48"/>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="27" t="s">
@@ -4224,7 +4374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:A13"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4242,10 +4392,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4256,19 +4406,19 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>259</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4276,7 +4426,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="48"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="11" t="s">
         <v>261</v>
       </c>
@@ -4306,7 +4456,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="180">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="52" t="s">
         <v>268</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4314,13 +4464,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="150">
-      <c r="A18" s="48"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="11" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="48"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="11" t="s">
         <v>270</v>
       </c>
@@ -4350,7 +4500,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="51" t="s">
         <v>277</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -4358,13 +4508,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="47"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="11" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="51" t="s">
         <v>280</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -4372,19 +4522,19 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="47"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="11" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="47"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="47"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="11" t="s">
         <v>284</v>
       </c>
@@ -4398,7 +4548,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="51" t="s">
         <v>288</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -4406,31 +4556,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="47"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="11" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="47"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="47"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="47"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="11" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="52" t="s">
         <v>294</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -4438,25 +4588,25 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="48"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="48"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="32" customFormat="1">
-      <c r="A38" s="48"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="52" t="s">
         <v>298</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -4464,19 +4614,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="48"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="48"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="52" t="s">
         <v>303</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -4484,19 +4634,19 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="48"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="52" t="s">
         <v>307</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -4504,25 +4654,25 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="48"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="11" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="48"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="11" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="48"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="52" t="s">
         <v>312</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -4530,13 +4680,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="240">
-      <c r="A50" s="48"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="11" t="s">
         <v>314</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>
@@ -4544,12 +4700,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>
@@ -4560,4 +4710,277 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="66.5703125" customWidth="1"/>
+    <col min="2" max="2" width="117.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="33" customFormat="1">
+      <c r="A2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="48"/>
+    </row>
+    <row r="3" spans="1:2" s="33" customFormat="1">
+      <c r="A3" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="34" customFormat="1">
+      <c r="A4" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="33" customFormat="1">
+      <c r="A5" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="33" customFormat="1"/>
+    <row r="7" spans="1:2" s="33" customFormat="1"/>
+    <row r="8" spans="1:2" s="33" customFormat="1"/>
+    <row r="9" spans="1:2" s="33" customFormat="1"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="48"/>
+    </row>
+    <row r="11" spans="1:2" ht="120">
+      <c r="A11" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Lucene!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="75" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="48"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Solr!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="Getting Started with Enterprise Search Using Apache Solr" display="https://app.pluralsight.com/library/courses/enterprise-search-using-apache-solr"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2879,9 +2879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4716,9 +4716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="MyBatis" sheetId="5" r:id="rId5"/>
     <sheet name="Lucene" sheetId="6" r:id="rId6"/>
     <sheet name="Solr" sheetId="7" r:id="rId7"/>
+    <sheet name="ES" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="384">
   <si>
     <t>Topics</t>
   </si>
@@ -2216,9 +2217,6 @@
     <t>what is lucene</t>
   </si>
   <si>
-    <t>java search library</t>
-  </si>
-  <si>
     <t>Solr</t>
   </si>
   <si>
@@ -2252,13 +2250,140 @@
     <t>Getting Started with Enterprise Search Using Apache Solr</t>
   </si>
   <si>
-    <t>Solr is search framework built on top of lucene. Wrapper on top of Lucene</t>
-  </si>
-  <si>
     <t>Architecture</t>
   </si>
   <si>
     <t>images/lucene/5-architecture.JPG</t>
+  </si>
+  <si>
+    <t>Elastic Search (ES)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ksTTlXNLick&amp;index=32&amp;list=WL</t>
+  </si>
+  <si>
+    <t>Searching and Analyzing Data with Elasticsearch: Getting Started</t>
+  </si>
+  <si>
+    <t>Elastic Search</t>
+  </si>
+  <si>
+    <t>1. Open source search server that is build on top of Lucene
+2. Built in java
+3. Cross platform (work on different OS)
+4. Scalable - it has distributed architecture
+5. Designed to take data from any source, analyze it and search through it</t>
+  </si>
+  <si>
+    <t>6. Communication to search server is done through rest API
+7. Documents that are stored are json documents. That is schema less like no sql db
+8. Open Source
+9. Near Real time search engine</t>
+  </si>
+  <si>
+    <t>Elastic Search cluster</t>
+  </si>
+  <si>
+    <t>1. cluster is a collection of nodes
+2. there can be one or more nodes, depending on the scale. Can contain many nodes
+3. together these nodes contain all data
+4. cluster provides indexing and search capability across all nodes
+5. cluster will be identified by unique name (default name is "elasticsearch")</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>1. Single server that is part of cluster
+2. Stores searchable data. Stores all data if one node is available or part of data if there are multiple nodes.
+3. participate in cluster indexing and search capabilities
+4. identified by name (default name will be random marvel character)
+5. A node joins a cluster named "elasticseach" by default
+6. Starting a single node on a network will by default create a new single-node cluster named elasticsearch</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>1. collection of documents 
+2. like database in relational database system
+3. identified by name (name must be lowercased). Name is used when indexing, searching, updating and deleting documents within the index.
+4. we can define as many indexes as we want in a cluster</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>1. represent class/category of similar documents
+2. contains a name and a mapping
+3. type is like a table in relational database
+4. an index can have one or more types defined, each with their own mapping 
+5. Stored with in a metadata field named _type because lucene has no concept of document types. Searching for a specific document types applies a filter on this field.</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>1. smiliar to schema for a table in a relational database
+2. describe the fields that a document of a given type can have. Includes the datatype of each field (ex: string, integer, long, date etc). Also includes information on how fields should be indexed and stored by lucene
+3. dynamic mapping means that is optional to define mapping explicitely</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>1. basic unit of information that can be indexed
+2. consists of fields which are key/value pairs. A value can be string, integer, date etc
+3. Corresponds to an object in object oriented programming language. A document can be a single user, order, product etc
+4. Documents are expressed in JSON
+5. we can store as many documents as we want within an index
+6. like a row in a database table</t>
+  </si>
+  <si>
+    <t>SHARDS</t>
+  </si>
+  <si>
+    <t>1. An index can be divided into multiple pieces called Shards. Useful if an index contains more data than the hardware of a node can store (ex: 1 TB data in 500 GB hard disk)
+2. Shard is fully functional and independent index. Can be stored on any node in a cluster
+3. The number of shards can be specified when creating an index
+4. allows to scale horizontally by content volume (index space)
+5. allows to distribute and parallelize operations across shards to improve performance</t>
+  </si>
+  <si>
+    <t>Replicas</t>
+  </si>
+  <si>
+    <t>1. while shards are for performance, replicas are for high availability
+2. replica is a copy of shard
+3. provides high availability in case shard or node fails. Replica never resides on the same node as the original shard.
+4. allows scaling search volume, becuase search queries can be executed on all replicas in parallel
+5. by default elasticsearch adds 5 primary shards and 1 replica for each index</t>
+  </si>
+  <si>
+    <t>Pluralsight: Searching and Analyzing Data with Elasticsearch: Getting Started</t>
+  </si>
+  <si>
+    <t>java search library.
+Indexing and search library for high performance, full text search engine. Open source and free to use under apache license written in Java.</t>
+  </si>
+  <si>
+    <t>Solr is search server built on top of lucene. Wrapper on top of Lucene.
+A search server with distributed indexing, load balancing, replication, automated recovery of documents, centralized configuration</t>
+  </si>
+  <si>
+    <t>Another search engine in lucene ecosystem.</t>
+  </si>
+  <si>
+    <t>Apache Nutch</t>
+  </si>
+  <si>
+    <t>CrateDB</t>
+  </si>
+  <si>
+    <t>Youtube - by Doug Cutting</t>
+  </si>
+  <si>
+    <t>Youtube - Basics</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2534,6 +2659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2877,11 +3003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2928,7 +3054,25 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2940,6 +3084,7 @@
     <hyperlink ref="A5" location="MyBatis!A1" display="MyBatis"/>
     <hyperlink ref="A6" location="Lucene!A1" display="Lucene"/>
     <hyperlink ref="A7" location="Solr!A1" display="Solr"/>
+    <hyperlink ref="A8" location="ES!A1" display="Elastic Search (ES)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2969,10 +3114,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8"/>
@@ -2995,10 +3140,10 @@
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
@@ -3021,10 +3166,10 @@
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="38"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -3235,7 +3380,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="45" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -3243,13 +3388,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="45" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -3257,13 +3402,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="44"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="45" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -3271,19 +3416,19 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="44"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
-      <c r="A48" s="44"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="17" t="s">
         <v>88</v>
       </c>
@@ -3321,10 +3466,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="46"/>
+      <c r="B53" s="47"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="22" t="s">
@@ -3387,10 +3532,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="45" t="s">
+      <c r="A62" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="46"/>
+      <c r="B62" s="47"/>
     </row>
     <row r="63" spans="1:2" ht="90">
       <c r="A63" s="13" t="s">
@@ -3481,7 +3626,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -3489,7 +3634,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="39"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="18" t="s">
         <v>41</v>
       </c>
@@ -3511,7 +3656,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -3519,7 +3664,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="39"/>
+      <c r="A79" s="40"/>
       <c r="B79" s="18" t="s">
         <v>34</v>
       </c>
@@ -3565,10 +3710,10 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="43"/>
+      <c r="B85" s="44"/>
     </row>
     <row r="86" spans="1:2" ht="90">
       <c r="A86" s="11" t="s">
@@ -3655,11 +3800,11 @@
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="40"/>
+      <c r="A99" s="41"/>
       <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="40"/>
+      <c r="A100" s="41"/>
       <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2">
@@ -3675,11 +3820,11 @@
       <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="41"/>
+      <c r="A104" s="42"/>
       <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="41"/>
+      <c r="A105" s="42"/>
       <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2">
@@ -3735,11 +3880,11 @@
       <c r="B118" s="5"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="38"/>
+      <c r="A120" s="39"/>
       <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="38"/>
+      <c r="A121" s="39"/>
       <c r="B121" s="5"/>
     </row>
   </sheetData>
@@ -3793,19 +3938,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="49"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
@@ -3839,10 +3984,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14"/>
@@ -3854,10 +3999,10 @@
       <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="49"/>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="14" t="s">
@@ -3884,7 +4029,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="225">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="53" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -3892,13 +4037,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="165">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="52" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3906,7 +4051,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="195">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="11" t="s">
         <v>161</v>
       </c>
@@ -3920,13 +4065,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="49"/>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="50" t="s">
         <v>238</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -3934,7 +4079,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="11" t="s">
         <v>242</v>
       </c>
@@ -3948,10 +4093,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="48"/>
+      <c r="B37" s="49"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
@@ -4008,10 +4153,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4022,22 +4167,22 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="49"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="49"/>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
@@ -4320,10 +4465,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="B53" s="48"/>
+      <c r="B53" s="49"/>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="27" t="s">
@@ -4392,10 +4537,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4406,19 +4551,19 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="49"/>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>259</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4426,7 +4571,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="52"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="11" t="s">
         <v>261</v>
       </c>
@@ -4456,7 +4601,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="180">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="53" t="s">
         <v>268</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4464,13 +4609,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="150">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="11" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="52"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="11" t="s">
         <v>270</v>
       </c>
@@ -4500,7 +4645,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="52" t="s">
         <v>277</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -4508,13 +4653,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="11" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="52" t="s">
         <v>280</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -4522,19 +4667,19 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="51"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="11" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="51"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="11" t="s">
         <v>284</v>
       </c>
@@ -4548,7 +4693,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="52" t="s">
         <v>288</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -4556,31 +4701,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="11" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="51"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="51"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="11" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="53" t="s">
         <v>294</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -4588,25 +4733,25 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="52"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="52"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="32" customFormat="1">
-      <c r="A38" s="52"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>298</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -4614,19 +4759,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="52"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="52"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="53" t="s">
         <v>303</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -4634,19 +4779,19 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="52"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="52"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>307</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -4654,25 +4799,25 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="52"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="11" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="52"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="11" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="52"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="53" t="s">
         <v>312</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -4680,19 +4825,13 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="240">
-      <c r="A50" s="52"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="11" t="s">
         <v>314</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>
@@ -4700,6 +4839,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>
@@ -4716,9 +4861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4736,25 +4881,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="33" customFormat="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="33" customFormat="1">
-      <c r="A3" s="33" t="s">
-        <v>339</v>
+      <c r="A3" s="37" t="s">
+        <v>383</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="34" customFormat="1">
-      <c r="A4" s="34" t="s">
-        <v>339</v>
+      <c r="A4" s="37" t="s">
+        <v>382</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="33" customFormat="1">
@@ -4770,10 +4915,10 @@
     <row r="8" spans="1:2" s="33" customFormat="1"/>
     <row r="9" spans="1:2" s="33" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" s="33" t="s">
@@ -4855,60 +5000,60 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="45">
       <c r="A21" s="34" t="s">
         <v>340</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="34" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="34" t="s">
-        <v>342</v>
-      </c>
       <c r="B22" s="11" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4934,7 +5079,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4952,24 +5097,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="34" t="s">
         <v>247</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4983,4 +5128,157 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="79.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="37" customFormat="1">
+      <c r="A4" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="49"/>
+    </row>
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60">
+      <c r="A11" s="53"/>
+      <c r="B11" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75">
+      <c r="A12" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="90">
+      <c r="A15" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="105">
+      <c r="A17" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90">
+      <c r="A18" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A21:B21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="ES!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="Searching and Analyzing Data with Elasticsearch: Getting Started" display="https://app.pluralsight.com/library/courses/elasticsearch-analyzing-data"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4832,6 +4832,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>
@@ -4839,12 +4845,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2363,10 +2363,6 @@
     <t>Pluralsight: Searching and Analyzing Data with Elasticsearch: Getting Started</t>
   </si>
   <si>
-    <t>java search library.
-Indexing and search library for high performance, full text search engine. Open source and free to use under apache license written in Java.</t>
-  </si>
-  <si>
     <t>Solr is search server built on top of lucene. Wrapper on top of Lucene.
 A search server with distributed indexing, load balancing, replication, automated recovery of documents, centralized configuration</t>
   </si>
@@ -2384,6 +2380,11 @@
   </si>
   <si>
     <t>Youtube - Basics</t>
+  </si>
+  <si>
+    <t>java search library.
+Indexing and search library for high performance, full text search engine. 
+Open source and free to use under apache license written in Java.</t>
   </si>
 </sst>
 </file>
@@ -3064,15 +3065,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4832,12 +4833,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>
@@ -4845,6 +4840,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>
@@ -4861,9 +4862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4888,7 +4889,7 @@
     </row>
     <row r="3" spans="1:2" s="33" customFormat="1">
       <c r="A3" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>338</v>
@@ -4896,7 +4897,7 @@
     </row>
     <row r="4" spans="1:2" s="34" customFormat="1">
       <c r="A4" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>348</v>
@@ -5005,7 +5006,7 @@
         <v>340</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
@@ -5013,7 +5014,7 @@
         <v>341</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5134,9 +5135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="391">
   <si>
     <t>Topics</t>
   </si>
@@ -2376,15 +2376,339 @@
     <t>CrateDB</t>
   </si>
   <si>
-    <t>Youtube - by Doug Cutting</t>
-  </si>
-  <si>
-    <t>Youtube - Basics</t>
-  </si>
-  <si>
     <t>java search library.
 Indexing and search library for high performance, full text search engine. 
 Open source and free to use under apache license written in Java.</t>
+  </si>
+  <si>
+    <t>common classes used during indexing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IndexWriter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class acts as a core component which creates/updates indexes during the indexing process
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Directory:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class represents the storage location of the indexes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analyzer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class is responsible to analyze a document and get the tokens/words from the text which is to be indexed. Without analysis done, IndexWriter cannot create index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Document:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class represents a virtual document with Fields where the Field is an object which can contain the physical document's 
+ contents, its meta data and so on. The Analyzer can understand a Document only.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is the lowest unit or the starting point of the indexing process. It represents the key value pair relationship where a key is used to identify the value to be indexed. Let us assume a field used to represent contents of a document will have key as "contents" and the value may contain the part or all of the text or numeric content of the document. Lucene can index only text or numeric content only</t>
+    </r>
+  </si>
+  <si>
+    <t>common classes used during search</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IndexSearcher:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class act as a core component which reads/searches indexes created after the indexing process. It takes directory instance pointing to the location containing the indexes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Term:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class is the lowest unit of searching. It is similar to Field in indexing process
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Query is an abstract class and contains various utility methods and is the parent of all types of queries that Lucene uses during search process
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TermQuery:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the most commonly-used query object and is the foundation of many complex queries that Lucene can make use of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TopDocs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> points to the top N search results which matches the search criteria. It is a simple container of pointers to point to documents which are the output of a search result</t>
+    </r>
+  </si>
+  <si>
+    <t>common steps in indexing process</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add Document:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This operation is used in the initial stage of the indexing process to create the indexes on the newly available content
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Update Document:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This operation is used to update indexes to reflect the changes in the updated contents. It is similar to recreating the index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete Document:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This operation is used to update indexes to exclude the documents which are not required to be indexed/searched
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Field Options:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Field options specify a way or control the ways in which the contents of a field are to be made searchable</t>
+    </r>
+  </si>
+  <si>
+    <t>Youtube - Basics - completed</t>
+  </si>
+  <si>
+    <t>Youtube - by Doug Cutting - completed</t>
+  </si>
+  <si>
+    <t>images/lucene/lucene_tutorial.pdf</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2660,6 +2984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3115,10 +3440,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8"/>
@@ -3141,10 +3466,10 @@
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="39"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
@@ -3167,10 +3492,10 @@
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="39"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -3381,7 +3706,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="46" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -3389,13 +3714,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="45"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="46" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -3403,13 +3728,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="45"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="46" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -3417,19 +3742,19 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="45"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="45"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
-      <c r="A48" s="45"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="17" t="s">
         <v>88</v>
       </c>
@@ -3467,10 +3792,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="47"/>
+      <c r="B53" s="48"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="22" t="s">
@@ -3533,10 +3858,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="47"/>
+      <c r="B62" s="48"/>
     </row>
     <row r="63" spans="1:2" ht="90">
       <c r="A63" s="13" t="s">
@@ -3627,7 +3952,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -3635,7 +3960,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="40"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="18" t="s">
         <v>41</v>
       </c>
@@ -3657,7 +3982,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="41" t="s">
         <v>36</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -3665,7 +3990,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="40"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="18" t="s">
         <v>34</v>
       </c>
@@ -3711,10 +4036,10 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="44"/>
+      <c r="B85" s="45"/>
     </row>
     <row r="86" spans="1:2" ht="90">
       <c r="A86" s="11" t="s">
@@ -3801,11 +4126,11 @@
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="41"/>
+      <c r="A99" s="42"/>
       <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="41"/>
+      <c r="A100" s="42"/>
       <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2">
@@ -3821,11 +4146,11 @@
       <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="42"/>
+      <c r="A104" s="43"/>
       <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="42"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2">
@@ -3881,11 +4206,11 @@
       <c r="B118" s="5"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="39"/>
+      <c r="A120" s="40"/>
       <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="39"/>
+      <c r="A121" s="40"/>
       <c r="B121" s="5"/>
     </row>
   </sheetData>
@@ -3939,19 +4264,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
@@ -3985,10 +4310,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="50"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14"/>
@@ -4000,10 +4325,10 @@
       <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="50"/>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="14" t="s">
@@ -4030,7 +4355,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="225">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="54" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -4038,13 +4363,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="165">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="53" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -4052,7 +4377,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="195">
-      <c r="A27" s="52"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="11" t="s">
         <v>161</v>
       </c>
@@ -4066,13 +4391,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="50"/>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="51" t="s">
         <v>238</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -4080,7 +4405,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="11" t="s">
         <v>242</v>
       </c>
@@ -4094,10 +4419,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="50"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
@@ -4154,10 +4479,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4168,22 +4493,22 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="50"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
@@ -4466,10 +4791,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="B53" s="49"/>
+      <c r="B53" s="50"/>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="27" t="s">
@@ -4538,10 +4863,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4552,19 +4877,19 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="50"/>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>259</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4572,7 +4897,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="11" t="s">
         <v>261</v>
       </c>
@@ -4602,7 +4927,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="180">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="54" t="s">
         <v>268</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4610,13 +4935,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="150">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="11" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="11" t="s">
         <v>270</v>
       </c>
@@ -4646,7 +4971,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>277</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -4654,13 +4979,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="11" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>280</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -4668,19 +4993,19 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="52"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="11" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="52"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="52"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="11" t="s">
         <v>284</v>
       </c>
@@ -4694,7 +5019,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="53" t="s">
         <v>288</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -4702,31 +5027,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="52"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="11" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="52"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="52"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="52"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="11" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="54" t="s">
         <v>294</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -4734,25 +5059,25 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="53"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="53"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="32" customFormat="1">
-      <c r="A38" s="53"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>298</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -4760,19 +5085,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="53"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="53"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="54" t="s">
         <v>303</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -4780,19 +5105,19 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="53"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="53"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="54" t="s">
         <v>307</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -4800,25 +5125,25 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="53"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="11" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="53"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="11" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="53"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="54" t="s">
         <v>312</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -4826,13 +5151,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="240">
-      <c r="A50" s="53"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="11" t="s">
         <v>314</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>
@@ -4840,12 +5171,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>
@@ -4860,11 +5185,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4882,44 +5207,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="33" customFormat="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2" s="33" customFormat="1">
-      <c r="A3" s="37" t="s">
-        <v>382</v>
+      <c r="A3" s="38" t="s">
+        <v>388</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="34" customFormat="1">
-      <c r="A4" s="37" t="s">
-        <v>381</v>
+      <c r="A4" s="38" t="s">
+        <v>389</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="33" customFormat="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="54" t="s">
         <v>336</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="33" customFormat="1"/>
-    <row r="7" spans="1:2" s="33" customFormat="1"/>
+    <row r="6" spans="1:2" s="33" customFormat="1">
+      <c r="A6" s="54"/>
+      <c r="B6" s="38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="33" customFormat="1">
+      <c r="A7" s="38"/>
+    </row>
     <row r="8" spans="1:2" s="33" customFormat="1"/>
     <row r="9" spans="1:2" s="33" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" s="33" t="s">
@@ -5006,7 +5338,7 @@
         <v>340</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
@@ -5057,10 +5389,35 @@
         <v>353</v>
       </c>
     </row>
+    <row r="28" spans="1:2" ht="165">
+      <c r="A28" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="135">
+      <c r="A29" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="105">
+      <c r="A30" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Lucene!A2" display="Up"/>
@@ -5098,10 +5455,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="34" t="s">
@@ -5112,10 +5469,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5135,7 +5492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
@@ -5155,10 +5512,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="37" t="s">
@@ -5177,13 +5534,13 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>357</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -5191,7 +5548,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="11" t="s">
         <v>359</v>
       </c>
@@ -5261,10 +5618,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="393">
   <si>
     <t>Topics</t>
   </si>
@@ -2709,6 +2709,12 @@
   </si>
   <si>
     <t>images/lucene/lucene_tutorial.pdf</t>
+  </si>
+  <si>
+    <t>refer Github -&gt; LucenePractice</t>
+  </si>
+  <si>
+    <t>Lucene Example - Do not proceed without going through examples</t>
   </si>
 </sst>
 </file>
@@ -2901,7 +2907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2984,6 +2990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3440,10 +3447,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8"/>
@@ -3466,10 +3473,10 @@
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
@@ -3492,10 +3499,10 @@
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -3706,7 +3713,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="47" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -3714,13 +3721,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="46"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="47" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -3728,13 +3735,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="46"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="47" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -3742,19 +3749,19 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="46"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="46"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
-      <c r="A48" s="46"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="17" t="s">
         <v>88</v>
       </c>
@@ -3792,10 +3799,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="48"/>
+      <c r="B53" s="49"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="22" t="s">
@@ -3858,10 +3865,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="48"/>
+      <c r="B62" s="49"/>
     </row>
     <row r="63" spans="1:2" ht="90">
       <c r="A63" s="13" t="s">
@@ -3952,7 +3959,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -3960,7 +3967,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
-      <c r="A75" s="41"/>
+      <c r="A75" s="42"/>
       <c r="B75" s="18" t="s">
         <v>41</v>
       </c>
@@ -3982,7 +3989,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -3990,7 +3997,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="41"/>
+      <c r="A79" s="42"/>
       <c r="B79" s="18" t="s">
         <v>34</v>
       </c>
@@ -4036,10 +4043,10 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="44" t="s">
+      <c r="A85" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="45"/>
+      <c r="B85" s="46"/>
     </row>
     <row r="86" spans="1:2" ht="90">
       <c r="A86" s="11" t="s">
@@ -4126,11 +4133,11 @@
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="42"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="42"/>
+      <c r="A100" s="43"/>
       <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2">
@@ -4146,11 +4153,11 @@
       <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="43"/>
+      <c r="A104" s="44"/>
       <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="43"/>
+      <c r="A105" s="44"/>
       <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2">
@@ -4206,11 +4213,11 @@
       <c r="B118" s="5"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="40"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="40"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="5"/>
     </row>
   </sheetData>
@@ -4264,19 +4271,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="51"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
@@ -4310,10 +4317,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="51"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14"/>
@@ -4325,10 +4332,10 @@
       <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="51"/>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="14" t="s">
@@ -4355,7 +4362,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="225">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="55" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -4363,13 +4370,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="165">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="54" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -4377,7 +4384,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="195">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="11" t="s">
         <v>161</v>
       </c>
@@ -4391,13 +4398,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="51"/>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="52" t="s">
         <v>238</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -4405,7 +4412,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="52"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="11" t="s">
         <v>242</v>
       </c>
@@ -4419,10 +4426,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="51"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
@@ -4479,10 +4486,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4493,22 +4500,22 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="51"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="51"/>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
@@ -4791,10 +4798,10 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="B53" s="50"/>
+      <c r="B53" s="51"/>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="27" t="s">
@@ -4863,10 +4870,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -4877,19 +4884,19 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="51"/>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>259</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4897,7 +4904,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="11" t="s">
         <v>261</v>
       </c>
@@ -4927,7 +4934,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="180">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>268</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4935,13 +4942,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="150">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="11" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="11" t="s">
         <v>270</v>
       </c>
@@ -4971,7 +4978,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="54" t="s">
         <v>277</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -4979,13 +4986,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="53"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="11" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="54" t="s">
         <v>280</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -4993,19 +5000,19 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="11" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="53"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="11" t="s">
         <v>284</v>
       </c>
@@ -5019,7 +5026,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="54" t="s">
         <v>288</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -5027,31 +5034,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="11" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="53"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="53"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="53"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="11" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="55" t="s">
         <v>294</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -5059,25 +5066,25 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="32" customFormat="1">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="55" t="s">
         <v>298</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -5085,19 +5092,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="55" t="s">
         <v>303</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -5105,19 +5112,19 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="55" t="s">
         <v>307</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -5125,25 +5132,25 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="11" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="11" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="55" t="s">
         <v>312</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -5151,7 +5158,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="240">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="11" t="s">
         <v>314</v>
       </c>
@@ -5185,11 +5192,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5207,10 +5214,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="33" customFormat="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" s="33" customFormat="1">
       <c r="A3" s="38" t="s">
@@ -5229,7 +5236,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" s="33" customFormat="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>336</v>
       </c>
       <c r="B5" s="26" t="s">
@@ -5237,7 +5244,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" s="33" customFormat="1">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="38" t="s">
         <v>390</v>
       </c>
@@ -5248,10 +5255,10 @@
     <row r="8" spans="1:2" s="33" customFormat="1"/>
     <row r="9" spans="1:2" s="33" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" s="33" t="s">
@@ -5389,27 +5396,35 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="165">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:2" s="39" customFormat="1">
+      <c r="A28" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="165">
+      <c r="A29" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="135">
-      <c r="A29" s="38" t="s">
+    <row r="30" spans="1:2" ht="135">
+      <c r="A30" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="105">
-      <c r="A30" s="38" t="s">
+    <row r="31" spans="1:2" ht="105">
+      <c r="A31" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5455,10 +5470,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="34" t="s">
@@ -5469,10 +5484,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5493,8 +5508,8 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5512,10 +5527,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="37" t="s">
@@ -5534,13 +5549,13 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="51"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>357</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -5548,7 +5563,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="11" t="s">
         <v>359</v>
       </c>
@@ -5618,10 +5633,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -5165,12 +5165,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>
@@ -5178,6 +5172,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -5165,6 +5165,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>
@@ -5172,12 +5178,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="396">
   <si>
     <t>Topics</t>
   </si>
@@ -2716,12 +2716,21 @@
   <si>
     <t>Lucene Example - Do not proceed without going through examples</t>
   </si>
+  <si>
+    <t>Workspaces</t>
+  </si>
+  <si>
+    <t>Eclipse workspace</t>
+  </si>
+  <si>
+    <t>E:\workspaces\eclipse-link-ws</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2768,13 +2777,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2931,7 +2933,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2959,10 +2960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -2994,6 +2995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3009,10 +3011,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3340,7 +3342,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3361,7 +3363,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3396,15 +3398,15 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3439,10 +3441,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3505,210 +3507,210 @@
       <c r="B14" s="40"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="10" customFormat="1">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:2" s="9" customFormat="1">
+      <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="10" customFormat="1" ht="120">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:2" s="9" customFormat="1" ht="120">
+      <c r="A20" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="10" customFormat="1">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:2" s="9" customFormat="1">
+      <c r="A22" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="120">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3716,13 +3718,13 @@
       <c r="A41" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
       <c r="A42" s="47"/>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3730,13 +3732,13 @@
       <c r="A43" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="47"/>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3744,57 +3746,57 @@
       <c r="A45" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="47"/>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
       <c r="A47" s="47"/>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
       <c r="A48" s="47"/>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3805,64 +3807,64 @@
       <c r="B53" s="49"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="19"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="18"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="48" t="s">
@@ -3871,90 +3873,90 @@
       <c r="B62" s="49"/>
     </row>
     <row r="63" spans="1:2" ht="90">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="75">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="75">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3962,29 +3964,29 @@
       <c r="A74" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="90">
       <c r="A75" s="42"/>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="165">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3992,53 +3994,53 @@
       <c r="A78" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
       <c r="A79" s="42"/>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="105">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="225">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="195">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="135">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="120">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4049,66 +4051,66 @@
       <c r="B85" s="46"/>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="180">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="135">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4249,24 +4251,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" customWidth="1"/>
-    <col min="2" max="2" width="107.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="72.5703125" customWidth="1"/>
+    <col min="2" max="2" width="113.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4277,186 +4279,181 @@
       <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="50" t="s">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="B7" s="51"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="14" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="14" customFormat="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:2" s="14" customFormat="1">
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="50" t="s">
+      <c r="A8" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="13" customFormat="1">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="51"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="14"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="50" t="s">
+      <c r="B10" s="51"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="51"/>
-    </row>
-    <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="14" t="s">
+      <c r="B13" s="51"/>
+    </row>
+    <row r="14" spans="1:2" ht="90">
+      <c r="A14" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="165">
-      <c r="A22" s="25" t="s">
+    <row r="15" spans="1:2" ht="165">
+      <c r="A15" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="255">
-      <c r="A23" s="25" t="s">
+    <row r="16" spans="1:2" ht="255">
+      <c r="A16" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="225">
-      <c r="A24" s="55" t="s">
+    <row r="17" spans="1:2" ht="225">
+      <c r="A17" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="55"/>
-      <c r="B25" s="11" t="s">
+    <row r="18" spans="1:2" ht="150">
+      <c r="A18" s="55"/>
+      <c r="B18" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="165">
-      <c r="A26" s="54" t="s">
+    <row r="19" spans="1:2" ht="165">
+      <c r="A19" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="195">
-      <c r="A27" s="54"/>
-      <c r="B27" s="11" t="s">
+    <row r="20" spans="1:2" ht="195">
+      <c r="A20" s="54"/>
+      <c r="B20" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="14" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="51"/>
+    </row>
+    <row r="24" spans="1:2" ht="60">
+      <c r="A24" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25" s="53"/>
+      <c r="B25" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="50" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B30" s="51"/>
     </row>
-    <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="53"/>
-      <c r="B32" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="B37" s="51"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="14" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>245</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Eclipselink!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4478,10 +4475,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4495,7 +4492,7 @@
       <c r="A3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4518,282 +4515,282 @@
       <c r="B16" s="51"/>
     </row>
     <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="90">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4804,26 +4801,26 @@
       <c r="B53" s="51"/>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4858,14 +4855,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.140625" customWidth="1"/>
-    <col min="2" max="2" width="109" style="11" customWidth="1"/>
+    <col min="2" max="2" width="109" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4879,7 +4876,7 @@
       <c r="A3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4899,37 +4896,37 @@
       <c r="A12" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" s="55"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="90">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4937,43 +4934,43 @@
       <c r="A17" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="150">
       <c r="A18" s="55"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="55"/>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="105">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="165">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4981,13 +4978,13 @@
       <c r="A23" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
       <c r="A24" s="54"/>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4995,33 +4992,33 @@
       <c r="A25" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="54"/>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
       <c r="A27" s="54"/>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
       <c r="A28" s="54"/>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5029,31 +5026,31 @@
       <c r="A30" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="54"/>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="54"/>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="54"/>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="54"/>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5061,25 +5058,25 @@
       <c r="A35" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60">
       <c r="A36" s="55"/>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="55"/>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="32" customFormat="1">
+    <row r="38" spans="1:2" s="31" customFormat="1">
       <c r="A38" s="55"/>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5087,19 +5084,19 @@
       <c r="A39" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
       <c r="A40" s="55"/>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="55"/>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5107,19 +5104,19 @@
       <c r="A42" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="55"/>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="55"/>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5127,25 +5124,25 @@
       <c r="A45" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
       <c r="A46" s="55"/>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="55"/>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="55"/>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>311</v>
       </c>
     </row>
@@ -5153,24 +5150,18 @@
       <c r="A49" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="240">
       <c r="A50" s="55"/>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>314</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>
@@ -5178,6 +5169,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>
@@ -5194,9 +5191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5206,54 +5203,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="33" customFormat="1">
+    <row r="2" spans="1:2" s="32" customFormat="1">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2" s="33" customFormat="1">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:2" s="32" customFormat="1">
+      <c r="A3" s="37" t="s">
         <v>388</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="34" customFormat="1">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:2" s="33" customFormat="1">
+      <c r="A4" s="37" t="s">
         <v>389</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="33" customFormat="1">
+    <row r="5" spans="1:2" s="32" customFormat="1">
       <c r="A5" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="33" customFormat="1">
+    <row r="6" spans="1:2" s="32" customFormat="1">
       <c r="A6" s="55"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="33" customFormat="1">
-      <c r="A7" s="38"/>
-    </row>
-    <row r="8" spans="1:2" s="33" customFormat="1"/>
-    <row r="9" spans="1:2" s="33" customFormat="1"/>
+    <row r="7" spans="1:2" s="32" customFormat="1">
+      <c r="A7" s="37"/>
+    </row>
+    <row r="8" spans="1:2" s="32" customFormat="1"/>
+    <row r="9" spans="1:2" s="32" customFormat="1"/>
     <row r="10" spans="1:2">
       <c r="A10" s="50" t="s">
         <v>315</v>
@@ -5261,170 +5258,170 @@
       <c r="B10" s="51"/>
     </row>
     <row r="11" spans="1:2" ht="120">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="39" customFormat="1">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:2" s="38" customFormat="1">
+      <c r="A28" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="135">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5462,10 +5459,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5476,7 +5473,7 @@
       <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>247</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -5519,10 +5516,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5533,15 +5530,15 @@
       <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>247</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="37" customFormat="1">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:2" s="36" customFormat="1">
+      <c r="A4" s="36" t="s">
         <v>339</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5558,77 +5555,77 @@
       <c r="A10" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
       <c r="A11" s="55"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="90">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="105">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>374</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>375</v>
       </c>
     </row>

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2729,8 +2729,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3050,6 +3050,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3096,7 +3104,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3128,9 +3136,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3162,6 +3171,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3337,7 +3347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3345,13 +3355,13 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" customWidth="1"/>
-    <col min="2" max="2" width="118.5703125" customWidth="1"/>
+    <col min="1" max="1" width="57.5546875" customWidth="1"/>
+    <col min="2" max="2" width="118.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3359,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3367,37 +3377,37 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>379</v>
       </c>
@@ -3405,7 +3415,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>380</v>
       </c>
@@ -3426,21 +3436,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="120.7109375" customWidth="1"/>
+    <col min="1" max="1" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="120.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3448,65 +3458,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="40"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="40"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>147</v>
       </c>
@@ -3514,7 +3524,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>145</v>
       </c>
@@ -3522,7 +3532,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>143</v>
       </c>
@@ -3530,7 +3540,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>141</v>
       </c>
@@ -3538,7 +3548,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
@@ -3546,7 +3556,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" ht="120">
+    <row r="20" spans="1:2" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>138</v>
       </c>
@@ -3554,7 +3564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>136</v>
       </c>
@@ -3562,7 +3572,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>100</v>
       </c>
@@ -3570,7 +3580,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>133</v>
       </c>
@@ -3578,7 +3588,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>131</v>
       </c>
@@ -3586,7 +3596,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>129</v>
       </c>
@@ -3594,7 +3604,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="120">
+    <row r="26" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>127</v>
       </c>
@@ -3602,7 +3612,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="75">
+    <row r="27" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>125</v>
       </c>
@@ -3610,7 +3620,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="90">
+    <row r="28" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>123</v>
       </c>
@@ -3618,7 +3628,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="75">
+    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>121</v>
       </c>
@@ -3626,7 +3636,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="75">
+    <row r="30" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>119</v>
       </c>
@@ -3634,7 +3644,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="75">
+    <row r="31" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>117</v>
       </c>
@@ -3642,7 +3652,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>115</v>
       </c>
@@ -3650,7 +3660,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45">
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>113</v>
       </c>
@@ -3658,7 +3668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>111</v>
       </c>
@@ -3666,7 +3676,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="45">
+    <row r="35" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>109</v>
       </c>
@@ -3674,7 +3684,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30">
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>107</v>
       </c>
@@ -3682,7 +3692,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>105</v>
       </c>
@@ -3690,7 +3700,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>103</v>
       </c>
@@ -3698,7 +3708,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>101</v>
       </c>
@@ -3706,7 +3716,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60">
+    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>100</v>
       </c>
@@ -3714,7 +3724,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="75">
+    <row r="41" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>98</v>
       </c>
@@ -3722,13 +3732,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45">
+    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="47"/>
       <c r="B42" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="60">
+    <row r="43" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>95</v>
       </c>
@@ -3736,13 +3746,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="45">
+    <row r="44" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
       <c r="B44" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="90">
+    <row r="45" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>92</v>
       </c>
@@ -3750,25 +3760,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="47"/>
       <c r="B46" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="75">
+    <row r="47" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
       <c r="B47" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="120">
+    <row r="48" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
       <c r="B48" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>87</v>
       </c>
@@ -3776,7 +3786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45">
+    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>86</v>
       </c>
@@ -3784,7 +3794,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>84</v>
       </c>
@@ -3792,7 +3802,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>83</v>
       </c>
@@ -3800,13 +3810,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="49"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>80</v>
       </c>
@@ -3814,7 +3824,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>78</v>
       </c>
@@ -3822,7 +3832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>76</v>
       </c>
@@ -3830,7 +3840,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>74</v>
       </c>
@@ -3838,7 +3848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>72</v>
       </c>
@@ -3846,7 +3856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>70</v>
       </c>
@@ -3854,7 +3864,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>68</v>
       </c>
@@ -3862,17 +3872,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="18"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>66</v>
       </c>
       <c r="B62" s="49"/>
     </row>
-    <row r="63" spans="1:2" ht="90">
+    <row r="63" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>65</v>
       </c>
@@ -3880,7 +3890,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="75">
+    <row r="64" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>63</v>
       </c>
@@ -3888,7 +3898,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="75">
+    <row r="65" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>61</v>
       </c>
@@ -3896,7 +3906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>59</v>
       </c>
@@ -3904,7 +3914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>57</v>
       </c>
@@ -3912,7 +3922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>55</v>
       </c>
@@ -3920,7 +3930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>53</v>
       </c>
@@ -3928,7 +3938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>51</v>
       </c>
@@ -3936,7 +3946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="60">
+    <row r="71" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>49</v>
       </c>
@@ -3944,7 +3954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>47</v>
       </c>
@@ -3952,7 +3962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>45</v>
       </c>
@@ -3960,7 +3970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="60">
+    <row r="74" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="42" t="s">
         <v>43</v>
       </c>
@@ -3968,13 +3978,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="90">
+    <row r="75" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A75" s="42"/>
       <c r="B75" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="165">
+    <row r="76" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>40</v>
       </c>
@@ -3982,7 +3992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30">
+    <row r="77" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>38</v>
       </c>
@@ -3990,7 +4000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45">
+    <row r="78" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="42" t="s">
         <v>36</v>
       </c>
@@ -3998,13 +4008,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="60">
+    <row r="79" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="42"/>
       <c r="B79" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="105">
+    <row r="80" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>33</v>
       </c>
@@ -4012,7 +4022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="225">
+    <row r="81" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>31</v>
       </c>
@@ -4020,7 +4030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="195">
+    <row r="82" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>29</v>
       </c>
@@ -4028,7 +4038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="135">
+    <row r="83" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>27</v>
       </c>
@@ -4036,7 +4046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="120">
+    <row r="84" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>25</v>
       </c>
@@ -4044,13 +4054,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B85" s="46"/>
     </row>
-    <row r="86" spans="1:2" ht="90">
+    <row r="86" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>22</v>
       </c>
@@ -4058,7 +4068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="180">
+    <row r="87" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>20</v>
       </c>
@@ -4066,7 +4076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="75">
+    <row r="88" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>18</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="90">
+    <row r="89" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>16</v>
       </c>
@@ -4082,7 +4092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="180">
+    <row r="90" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>14</v>
       </c>
@@ -4090,7 +4100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="135">
+    <row r="91" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>12</v>
       </c>
@@ -4098,7 +4108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="90">
+    <row r="92" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>10</v>
       </c>
@@ -4106,7 +4116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="90">
+    <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>8</v>
       </c>
@@ -4114,111 +4124,111 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="44"/>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="44"/>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="5"/>
     </row>
@@ -4250,21 +4260,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.5703125" customWidth="1"/>
-    <col min="2" max="2" width="113.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="72.5546875" customWidth="1"/>
+    <col min="2" max="2" width="113.44140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4272,13 +4282,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>162</v>
       </c>
@@ -4286,7 +4296,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -4294,7 +4304,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>235</v>
       </c>
@@ -4302,13 +4312,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>393</v>
       </c>
       <c r="B7" s="51"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>394</v>
       </c>
@@ -4316,25 +4326,25 @@
         <v>395</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="13" customFormat="1">
+    <row r="9" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="51"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="51"/>
     </row>
-    <row r="14" spans="1:2" ht="90">
+    <row r="14" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>151</v>
       </c>
@@ -4342,7 +4352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="165">
+    <row r="15" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>153</v>
       </c>
@@ -4350,7 +4360,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="255">
+    <row r="16" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>154</v>
       </c>
@@ -4358,7 +4368,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="225">
+    <row r="17" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
         <v>156</v>
       </c>
@@ -4366,13 +4376,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="150">
+    <row r="18" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="165">
+    <row r="19" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
         <v>159</v>
       </c>
@@ -4380,13 +4390,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="195">
+    <row r="20" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
       <c r="B20" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>233</v>
       </c>
@@ -4394,13 +4404,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
         <v>237</v>
       </c>
       <c r="B23" s="51"/>
     </row>
-    <row r="24" spans="1:2" ht="60">
+    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="52" t="s">
         <v>238</v>
       </c>
@@ -4408,13 +4418,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="60">
+    <row r="25" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
       <c r="B25" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45">
+    <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>241</v>
       </c>
@@ -4422,13 +4432,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
         <v>243</v>
       </c>
       <c r="B30" s="51"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>244</v>
       </c>
@@ -4460,21 +4470,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.140625" customWidth="1"/>
-    <col min="2" max="2" width="105.85546875" customWidth="1"/>
+    <col min="1" max="1" width="81.109375" customWidth="1"/>
+    <col min="2" max="2" width="105.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4482,13 +4492,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>246</v>
       </c>
@@ -4496,25 +4506,25 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="51"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="51"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>248</v>
       </c>
       <c r="B16" s="51"/>
     </row>
-    <row r="17" spans="1:2" ht="45">
+    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>166</v>
       </c>
@@ -4522,7 +4532,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="90">
+    <row r="18" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>168</v>
       </c>
@@ -4530,7 +4540,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>170</v>
       </c>
@@ -4538,7 +4548,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>172</v>
       </c>
@@ -4546,7 +4556,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>133</v>
       </c>
@@ -4554,7 +4564,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>131</v>
       </c>
@@ -4562,7 +4572,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>176</v>
       </c>
@@ -4570,7 +4580,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>178</v>
       </c>
@@ -4578,7 +4588,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="105">
+    <row r="25" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>180</v>
       </c>
@@ -4586,7 +4596,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="90">
+    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>182</v>
       </c>
@@ -4594,7 +4604,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>184</v>
       </c>
@@ -4602,7 +4612,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30">
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>186</v>
       </c>
@@ -4610,7 +4620,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="90">
+    <row r="29" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>188</v>
       </c>
@@ -4618,7 +4628,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>190</v>
       </c>
@@ -4626,7 +4636,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>192</v>
       </c>
@@ -4634,7 +4644,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>194</v>
       </c>
@@ -4642,7 +4652,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30">
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>196</v>
       </c>
@@ -4650,7 +4660,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>198</v>
       </c>
@@ -4658,7 +4668,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>200</v>
       </c>
@@ -4666,7 +4676,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="45">
+    <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>202</v>
       </c>
@@ -4674,7 +4684,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="45">
+    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>141</v>
       </c>
@@ -4682,7 +4692,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45">
+    <row r="38" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>205</v>
       </c>
@@ -4690,7 +4700,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>207</v>
       </c>
@@ -4698,7 +4708,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>209</v>
       </c>
@@ -4706,7 +4716,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>211</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45">
+    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>213</v>
       </c>
@@ -4722,7 +4732,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>215</v>
       </c>
@@ -4730,7 +4740,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>217</v>
       </c>
@@ -4738,7 +4748,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>219</v>
       </c>
@@ -4746,7 +4756,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>221</v>
       </c>
@@ -4754,7 +4764,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30">
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>223</v>
       </c>
@@ -4762,7 +4772,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>225</v>
       </c>
@@ -4770,7 +4780,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45">
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>227</v>
       </c>
@@ -4778,7 +4788,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45">
+    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>229</v>
       </c>
@@ -4786,7 +4796,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>231</v>
       </c>
@@ -4794,13 +4804,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
         <v>249</v>
       </c>
       <c r="B53" s="51"/>
     </row>
-    <row r="54" spans="1:2" ht="30">
+    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>250</v>
       </c>
@@ -4808,7 +4818,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="45">
+    <row r="55" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>252</v>
       </c>
@@ -4816,7 +4826,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="60">
+    <row r="56" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>254</v>
       </c>
@@ -4844,21 +4854,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.140625" customWidth="1"/>
+    <col min="1" max="1" width="78.109375" customWidth="1"/>
     <col min="2" max="2" width="109" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4866,13 +4876,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>257</v>
       </c>
@@ -4880,19 +4890,19 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="51"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="51"/>
     </row>
-    <row r="12" spans="1:2" ht="45">
+    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>259</v>
       </c>
@@ -4900,13 +4910,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="90">
+    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="105">
+    <row r="14" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>262</v>
       </c>
@@ -4914,7 +4924,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="90">
+    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>264</v>
       </c>
@@ -4922,7 +4932,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>266</v>
       </c>
@@ -4930,7 +4940,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="180">
+    <row r="17" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
         <v>268</v>
       </c>
@@ -4938,19 +4948,19 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="150">
+    <row r="18" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="60">
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
+    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>271</v>
       </c>
@@ -4958,7 +4968,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="105">
+    <row r="21" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>272</v>
       </c>
@@ -4966,7 +4976,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="165">
+    <row r="22" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>275</v>
       </c>
@@ -4974,7 +4984,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="75">
+    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
         <v>277</v>
       </c>
@@ -4982,13 +4992,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
+    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
       <c r="B24" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
+    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="54" t="s">
         <v>280</v>
       </c>
@@ -4996,25 +5006,25 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="54"/>
       <c r="B26" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45">
+    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="54"/>
       <c r="B27" s="10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="120">
+    <row r="28" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="54"/>
       <c r="B28" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>286</v>
       </c>
@@ -5022,7 +5032,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45">
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
         <v>288</v>
       </c>
@@ -5030,31 +5040,31 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="54"/>
       <c r="B31" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="54"/>
       <c r="B32" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30">
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="54"/>
       <c r="B33" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="45">
+    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="54"/>
       <c r="B34" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
         <v>294</v>
       </c>
@@ -5062,25 +5072,25 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="60">
+    <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="55"/>
       <c r="B36" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="55"/>
       <c r="B37" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="31" customFormat="1">
+    <row r="38" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55"/>
       <c r="B38" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30">
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
         <v>298</v>
       </c>
@@ -5088,19 +5098,19 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60">
+    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="55"/>
       <c r="B40" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="55"/>
       <c r="B41" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30">
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
         <v>303</v>
       </c>
@@ -5108,19 +5118,19 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45">
+    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="55"/>
       <c r="B43" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="55"/>
       <c r="B44" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
         <v>307</v>
       </c>
@@ -5128,25 +5138,25 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45">
+    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="55"/>
       <c r="B46" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="55"/>
       <c r="B47" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="55"/>
       <c r="B48" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45">
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="55" t="s">
         <v>312</v>
       </c>
@@ -5154,7 +5164,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="240">
+    <row r="50" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A50" s="55"/>
       <c r="B50" s="10" t="s">
         <v>314</v>
@@ -5188,21 +5198,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" customWidth="1"/>
-    <col min="2" max="2" width="117.7109375" customWidth="1"/>
+    <col min="1" max="1" width="66.5546875" customWidth="1"/>
+    <col min="2" max="2" width="117.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5210,13 +5220,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="32" customFormat="1">
+    <row r="2" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2" s="32" customFormat="1">
+    <row r="3" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>388</v>
       </c>
@@ -5224,7 +5234,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="33" customFormat="1">
+    <row r="4" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>389</v>
       </c>
@@ -5232,7 +5242,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="32" customFormat="1">
+    <row r="5" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>336</v>
       </c>
@@ -5240,24 +5250,24 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="32" customFormat="1">
+    <row r="6" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55"/>
       <c r="B6" s="37" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="32" customFormat="1">
+    <row r="7" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
     </row>
-    <row r="8" spans="1:2" s="32" customFormat="1"/>
-    <row r="9" spans="1:2" s="32" customFormat="1"/>
-    <row r="10" spans="1:2">
+    <row r="8" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>315</v>
       </c>
       <c r="B10" s="51"/>
     </row>
-    <row r="11" spans="1:2" ht="120">
+    <row r="11" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>334</v>
       </c>
@@ -5265,7 +5275,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>332</v>
       </c>
@@ -5273,7 +5283,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>330</v>
       </c>
@@ -5281,7 +5291,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>328</v>
       </c>
@@ -5289,7 +5299,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45">
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>326</v>
       </c>
@@ -5297,7 +5307,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>324</v>
       </c>
@@ -5305,7 +5315,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>323</v>
       </c>
@@ -5313,7 +5323,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>321</v>
       </c>
@@ -5321,7 +5331,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>319</v>
       </c>
@@ -5329,7 +5339,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
+    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>317</v>
       </c>
@@ -5337,7 +5347,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45">
+    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>340</v>
       </c>
@@ -5345,7 +5355,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45">
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>341</v>
       </c>
@@ -5353,7 +5363,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>342</v>
       </c>
@@ -5361,7 +5371,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>344</v>
       </c>
@@ -5369,7 +5379,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>346</v>
       </c>
@@ -5377,7 +5387,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>349</v>
       </c>
@@ -5385,7 +5395,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>352</v>
       </c>
@@ -5393,7 +5403,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="38" customFormat="1">
+    <row r="28" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>392</v>
       </c>
@@ -5401,7 +5411,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="165">
+    <row r="29" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
         <v>382</v>
       </c>
@@ -5409,7 +5419,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="135">
+    <row r="30" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
         <v>384</v>
       </c>
@@ -5417,7 +5427,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="105">
+    <row r="31" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>386</v>
       </c>
@@ -5444,7 +5454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5452,13 +5462,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="111.28515625" customWidth="1"/>
+    <col min="2" max="2" width="111.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5466,13 +5476,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>247</v>
       </c>
@@ -5480,7 +5490,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>2</v>
       </c>
@@ -5501,21 +5511,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.85546875" customWidth="1"/>
+    <col min="1" max="1" width="79.44140625" customWidth="1"/>
+    <col min="2" max="2" width="107.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5523,13 +5533,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>247</v>
       </c>
@@ -5537,7 +5547,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="36" customFormat="1">
+    <row r="4" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>339</v>
       </c>
@@ -5545,13 +5555,13 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="51"/>
     </row>
-    <row r="10" spans="1:2" ht="75">
+    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>357</v>
       </c>
@@ -5559,13 +5569,13 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="60">
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="75">
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>360</v>
       </c>
@@ -5573,7 +5583,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="90">
+    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>362</v>
       </c>
@@ -5581,7 +5591,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="75">
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>364</v>
       </c>
@@ -5589,7 +5599,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="90">
+    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>366</v>
       </c>
@@ -5597,7 +5607,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="60">
+    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>368</v>
       </c>
@@ -5605,7 +5615,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="105">
+    <row r="17" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
         <v>370</v>
       </c>
@@ -5613,7 +5623,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="90">
+    <row r="18" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>372</v>
       </c>
@@ -5621,7 +5631,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="75">
+    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
         <v>374</v>
       </c>
@@ -5629,7 +5639,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>376</v>
       </c>

--- a/Definitions/u-Definitions-ORM.xlsx
+++ b/Definitions/u-Definitions-ORM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="396">
   <si>
     <t>Topics</t>
   </si>
@@ -2729,8 +2729,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3104,7 +3104,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3136,10 +3136,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3171,7 +3170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3347,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3355,13 +3353,13 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.5546875" customWidth="1"/>
-    <col min="2" max="2" width="118.5546875" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3377,37 +3375,37 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="36" t="s">
         <v>379</v>
       </c>
@@ -3415,7 +3413,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="36" t="s">
         <v>380</v>
       </c>
@@ -3436,21 +3434,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.5546875" customWidth="1"/>
-    <col min="2" max="2" width="120.6640625" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="120.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3458,65 +3456,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="8"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="40"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="40"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
         <v>147</v>
       </c>
@@ -3524,7 +3522,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="10" t="s">
         <v>145</v>
       </c>
@@ -3532,7 +3530,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
         <v>143</v>
       </c>
@@ -3540,7 +3538,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>141</v>
       </c>
@@ -3548,7 +3546,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" s="9" customFormat="1">
       <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
@@ -3556,7 +3554,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="9" customFormat="1" ht="120">
       <c r="A20" s="12" t="s">
         <v>138</v>
       </c>
@@ -3564,7 +3562,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
         <v>136</v>
       </c>
@@ -3572,7 +3570,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" s="9" customFormat="1">
       <c r="A22" s="10" t="s">
         <v>100</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30">
       <c r="A23" s="10" t="s">
         <v>133</v>
       </c>
@@ -3588,7 +3586,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="30">
       <c r="A24" s="10" t="s">
         <v>131</v>
       </c>
@@ -3596,7 +3594,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
         <v>129</v>
       </c>
@@ -3604,7 +3602,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="120">
       <c r="A26" s="12" t="s">
         <v>127</v>
       </c>
@@ -3612,7 +3610,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="75">
       <c r="A27" s="12" t="s">
         <v>125</v>
       </c>
@@ -3620,7 +3618,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="90">
       <c r="A28" s="12" t="s">
         <v>123</v>
       </c>
@@ -3628,7 +3626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="75">
       <c r="A29" s="12" t="s">
         <v>121</v>
       </c>
@@ -3636,7 +3634,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="75">
       <c r="A30" s="12" t="s">
         <v>119</v>
       </c>
@@ -3644,7 +3642,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="75">
       <c r="A31" s="12" t="s">
         <v>117</v>
       </c>
@@ -3652,7 +3650,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="45">
       <c r="A32" s="12" t="s">
         <v>115</v>
       </c>
@@ -3660,7 +3658,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="45">
       <c r="A33" s="12" t="s">
         <v>113</v>
       </c>
@@ -3668,7 +3666,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
         <v>111</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="45">
       <c r="A35" s="12" t="s">
         <v>109</v>
       </c>
@@ -3684,7 +3682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="30">
       <c r="A36" s="12" t="s">
         <v>107</v>
       </c>
@@ -3692,7 +3690,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
         <v>105</v>
       </c>
@@ -3700,7 +3698,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="10" t="s">
         <v>103</v>
       </c>
@@ -3708,7 +3706,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
         <v>101</v>
       </c>
@@ -3716,7 +3714,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="60">
       <c r="A40" s="12" t="s">
         <v>100</v>
       </c>
@@ -3724,7 +3722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="75">
       <c r="A41" s="47" t="s">
         <v>98</v>
       </c>
@@ -3732,13 +3730,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="45">
       <c r="A42" s="47"/>
       <c r="B42" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="60">
       <c r="A43" s="47" t="s">
         <v>95</v>
       </c>
@@ -3746,13 +3744,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="45">
       <c r="A44" s="47"/>
       <c r="B44" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="90">
       <c r="A45" s="47" t="s">
         <v>92</v>
       </c>
@@ -3760,25 +3758,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="47"/>
       <c r="B46" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="75">
       <c r="A47" s="47"/>
       <c r="B47" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="120">
       <c r="A48" s="47"/>
       <c r="B48" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="10" t="s">
         <v>87</v>
       </c>
@@ -3786,7 +3784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="45">
       <c r="A50" s="12" t="s">
         <v>86</v>
       </c>
@@ -3794,7 +3792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="10" t="s">
         <v>84</v>
       </c>
@@ -3802,7 +3800,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="10" t="s">
         <v>83</v>
       </c>
@@ -3810,13 +3808,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="48" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="49"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" s="21" t="s">
         <v>80</v>
       </c>
@@ -3824,7 +3822,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" s="10" t="s">
         <v>78</v>
       </c>
@@ -3832,7 +3830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="10" t="s">
         <v>76</v>
       </c>
@@ -3840,7 +3838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" s="10" t="s">
         <v>74</v>
       </c>
@@ -3848,7 +3846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
         <v>72</v>
       </c>
@@ -3856,7 +3854,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" s="10" t="s">
         <v>70</v>
       </c>
@@ -3864,7 +3862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" s="10" t="s">
         <v>68</v>
       </c>
@@ -3872,17 +3870,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" s="10"/>
       <c r="B61" s="18"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" s="48" t="s">
         <v>66</v>
       </c>
       <c r="B62" s="49"/>
     </row>
-    <row r="63" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="90">
       <c r="A63" s="12" t="s">
         <v>65</v>
       </c>
@@ -3890,7 +3888,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="75">
       <c r="A64" s="12" t="s">
         <v>63</v>
       </c>
@@ -3898,7 +3896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="75">
       <c r="A65" s="12" t="s">
         <v>61</v>
       </c>
@@ -3906,7 +3904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" s="10" t="s">
         <v>59</v>
       </c>
@@ -3914,7 +3912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
         <v>57</v>
       </c>
@@ -3922,7 +3920,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" s="10" t="s">
         <v>55</v>
       </c>
@@ -3930,7 +3928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
         <v>53</v>
       </c>
@@ -3938,7 +3936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" s="10" t="s">
         <v>51</v>
       </c>
@@ -3946,7 +3944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="60">
       <c r="A71" s="12" t="s">
         <v>49</v>
       </c>
@@ -3954,7 +3952,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" s="10" t="s">
         <v>47</v>
       </c>
@@ -3962,7 +3960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" s="10" t="s">
         <v>45</v>
       </c>
@@ -3970,7 +3968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="60">
       <c r="A74" s="42" t="s">
         <v>43</v>
       </c>
@@ -3978,13 +3976,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="90">
       <c r="A75" s="42"/>
       <c r="B75" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="165">
       <c r="A76" s="12" t="s">
         <v>40</v>
       </c>
@@ -3992,7 +3990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="30">
       <c r="A77" s="10" t="s">
         <v>38</v>
       </c>
@@ -4000,7 +3998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="45">
       <c r="A78" s="42" t="s">
         <v>36</v>
       </c>
@@ -4008,13 +4006,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="60">
       <c r="A79" s="42"/>
       <c r="B79" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="105">
       <c r="A80" s="12" t="s">
         <v>33</v>
       </c>
@@ -4022,7 +4020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="225">
       <c r="A81" s="12" t="s">
         <v>31</v>
       </c>
@@ -4030,7 +4028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="195">
       <c r="A82" s="10" t="s">
         <v>29</v>
       </c>
@@ -4038,7 +4036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="135">
       <c r="A83" s="11" t="s">
         <v>27</v>
       </c>
@@ -4046,7 +4044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="120">
       <c r="A84" s="11" t="s">
         <v>25</v>
       </c>
@@ -4054,13 +4052,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B85" s="46"/>
     </row>
-    <row r="86" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="90">
       <c r="A86" s="10" t="s">
         <v>22</v>
       </c>
@@ -4068,7 +4066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="180">
       <c r="A87" s="10" t="s">
         <v>20</v>
       </c>
@@ -4076,7 +4074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="75">
       <c r="A88" s="10" t="s">
         <v>18</v>
       </c>
@@ -4084,7 +4082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="90">
       <c r="A89" s="10" t="s">
         <v>16</v>
       </c>
@@ -4092,7 +4090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="180">
       <c r="A90" s="10" t="s">
         <v>14</v>
       </c>
@@ -4100,7 +4098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="135">
       <c r="A91" s="10" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="90">
       <c r="A92" s="10" t="s">
         <v>10</v>
       </c>
@@ -4116,7 +4114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="90">
       <c r="A93" s="10" t="s">
         <v>8</v>
       </c>
@@ -4124,111 +4122,111 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" s="43"/>
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" s="43"/>
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" s="7"/>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" s="7"/>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" s="44"/>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" s="44"/>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" s="41"/>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" s="41"/>
       <c r="B121" s="5"/>
     </row>
@@ -4260,7 +4258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4268,13 +4266,13 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.5546875" customWidth="1"/>
-    <col min="2" max="2" width="113.44140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="72.5703125" customWidth="1"/>
+    <col min="2" max="2" width="113.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4282,13 +4280,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>162</v>
       </c>
@@ -4296,7 +4294,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -4304,7 +4302,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>235</v>
       </c>
@@ -4312,13 +4310,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="50" t="s">
         <v>393</v>
       </c>
       <c r="B7" s="51"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="39" t="s">
         <v>394</v>
       </c>
@@ -4326,25 +4324,25 @@
         <v>395</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="13" customFormat="1">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="51"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="51"/>
     </row>
-    <row r="14" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="90">
       <c r="A14" s="13" t="s">
         <v>151</v>
       </c>
@@ -4352,7 +4350,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="165">
       <c r="A15" s="24" t="s">
         <v>153</v>
       </c>
@@ -4360,7 +4358,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="255">
       <c r="A16" s="24" t="s">
         <v>154</v>
       </c>
@@ -4368,7 +4366,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="225">
       <c r="A17" s="55" t="s">
         <v>156</v>
       </c>
@@ -4376,13 +4374,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="150">
       <c r="A18" s="55"/>
       <c r="B18" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="165">
       <c r="A19" s="54" t="s">
         <v>159</v>
       </c>
@@ -4390,13 +4388,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="195">
       <c r="A20" s="54"/>
       <c r="B20" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30">
       <c r="A21" s="13" t="s">
         <v>233</v>
       </c>
@@ -4404,13 +4402,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="50" t="s">
         <v>237</v>
       </c>
       <c r="B23" s="51"/>
     </row>
-    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="60">
       <c r="A24" s="52" t="s">
         <v>238</v>
       </c>
@@ -4418,13 +4416,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="60">
       <c r="A25" s="53"/>
       <c r="B25" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="45">
       <c r="A26" s="13" t="s">
         <v>241</v>
       </c>
@@ -4432,13 +4430,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="50" t="s">
         <v>243</v>
       </c>
       <c r="B30" s="51"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="13" t="s">
         <v>244</v>
       </c>
@@ -4470,21 +4468,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.109375" customWidth="1"/>
-    <col min="2" max="2" width="105.88671875" customWidth="1"/>
+    <col min="1" max="1" width="72.7109375" customWidth="1"/>
+    <col min="2" max="2" width="113.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4492,13 +4490,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>246</v>
       </c>
@@ -4506,346 +4504,339 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="50" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="B6" s="51"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="50" t="s">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="B11" s="51"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="B16" s="51"/>
-    </row>
-    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>172</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="105">
+      <c r="A20" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>133</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="90">
+      <c r="A21" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
       <c r="A23" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="90">
+      <c r="A24" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>180</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>182</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45">
       <c r="A27" s="10" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
-        <v>188</v>
+        <v>196</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>192</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>194</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>196</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
-        <v>202</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
-        <v>141</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45">
+      <c r="A37" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
-        <v>205</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="10" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
       <c r="A42" s="10" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="10" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45">
       <c r="A44" s="10" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45">
       <c r="A45" s="10" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="10" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>227</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" s="51"/>
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>229</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="26" t="s">
+        <v>252</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>231</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="60">
+      <c r="A51" s="26" t="s">
+        <v>254</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="B53" s="51"/>
-    </row>
-    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B56" s="10" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JPA!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
-    <hyperlink ref="B28" r:id="rId1"/>
+    <hyperlink ref="B23" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2" display="https://app.pluralsight.com/library/courses/java-persistence-api-21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4854,7 +4845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4862,13 +4853,13 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="78.109375" customWidth="1"/>
+    <col min="1" max="1" width="78.140625" customWidth="1"/>
     <col min="2" max="2" width="109" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4876,13 +4867,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>257</v>
       </c>
@@ -4890,19 +4881,19 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="51"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="51"/>
     </row>
-    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="45">
       <c r="A12" s="56" t="s">
         <v>259</v>
       </c>
@@ -4910,13 +4901,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="90">
       <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="105">
       <c r="A14" s="28" t="s">
         <v>262</v>
       </c>
@@ -4924,7 +4915,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="90">
       <c r="A15" s="28" t="s">
         <v>264</v>
       </c>
@@ -4932,7 +4923,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="29" t="s">
         <v>266</v>
       </c>
@@ -4940,7 +4931,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="180">
       <c r="A17" s="55" t="s">
         <v>268</v>
       </c>
@@ -4948,19 +4939,19 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="150">
       <c r="A18" s="55"/>
       <c r="B18" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="60">
       <c r="A19" s="55"/>
       <c r="B19" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="45">
       <c r="A20" s="30" t="s">
         <v>271</v>
       </c>
@@ -4968,7 +4959,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="105">
       <c r="A21" s="30" t="s">
         <v>272</v>
       </c>
@@ -4976,7 +4967,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="165">
       <c r="A22" s="30" t="s">
         <v>275</v>
       </c>
@@ -4984,7 +4975,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="75">
       <c r="A23" s="54" t="s">
         <v>277</v>
       </c>
@@ -4992,13 +4983,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="45">
       <c r="A24" s="54"/>
       <c r="B24" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="45">
       <c r="A25" s="54" t="s">
         <v>280</v>
       </c>
@@ -5006,25 +4997,25 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="30">
       <c r="A26" s="54"/>
       <c r="B26" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="45">
       <c r="A27" s="54"/>
       <c r="B27" s="10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="120">
       <c r="A28" s="54"/>
       <c r="B28" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="30" t="s">
         <v>286</v>
       </c>
@@ -5032,7 +5023,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="45">
       <c r="A30" s="54" t="s">
         <v>288</v>
       </c>
@@ -5040,31 +5031,31 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="30">
       <c r="A31" s="54"/>
       <c r="B31" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="30">
       <c r="A32" s="54"/>
       <c r="B32" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30">
       <c r="A33" s="54"/>
       <c r="B33" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="45">
       <c r="A34" s="54"/>
       <c r="B34" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30">
       <c r="A35" s="55" t="s">
         <v>294</v>
       </c>
@@ -5072,25 +5063,25 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="60">
       <c r="A36" s="55"/>
       <c r="B36" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="30">
       <c r="A37" s="55"/>
       <c r="B37" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" s="31" customFormat="1">
       <c r="A38" s="55"/>
       <c r="B38" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="30">
       <c r="A39" s="55" t="s">
         <v>298</v>
       </c>
@@ -5098,19 +5089,19 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="60">
       <c r="A40" s="55"/>
       <c r="B40" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="55"/>
       <c r="B41" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="30">
       <c r="A42" s="55" t="s">
         <v>303</v>
       </c>
@@ -5118,19 +5109,19 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="45">
       <c r="A43" s="55"/>
       <c r="B43" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="55"/>
       <c r="B44" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="55" t="s">
         <v>307</v>
       </c>
@@ -5138,25 +5129,25 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="45">
       <c r="A46" s="55"/>
       <c r="B46" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="55"/>
       <c r="B47" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="55"/>
       <c r="B48" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="45">
       <c r="A49" s="55" t="s">
         <v>312</v>
       </c>
@@ -5164,7 +5155,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="240">
       <c r="A50" s="55"/>
       <c r="B50" s="10" t="s">
         <v>314</v>
@@ -5172,6 +5163,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:B2"/>
@@ -5179,12 +5176,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MyBatis!A2" display="Up"/>
@@ -5198,7 +5189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5206,13 +5197,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.5546875" customWidth="1"/>
-    <col min="2" max="2" width="117.6640625" customWidth="1"/>
+    <col min="1" max="1" width="66.5703125" customWidth="1"/>
+    <col min="2" max="2" width="117.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5220,13 +5211,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="32" customFormat="1">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="32" customFormat="1">
       <c r="A3" s="37" t="s">
         <v>388</v>
       </c>
@@ -5234,7 +5225,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="33" customFormat="1">
       <c r="A4" s="37" t="s">
         <v>389</v>
       </c>
@@ -5242,7 +5233,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="32" customFormat="1">
       <c r="A5" s="55" t="s">
         <v>336</v>
       </c>
@@ -5250,24 +5241,24 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="32" customFormat="1">
       <c r="A6" s="55"/>
       <c r="B6" s="37" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="32" customFormat="1">
       <c r="A7" s="37"/>
     </row>
-    <row r="8" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="32" customFormat="1"/>
+    <row r="9" spans="1:2" s="32" customFormat="1"/>
+    <row r="10" spans="1:2">
       <c r="A10" s="50" t="s">
         <v>315</v>
       </c>
       <c r="B10" s="51"/>
     </row>
-    <row r="11" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120">
       <c r="A11" s="32" t="s">
         <v>334</v>
       </c>
@@ -5275,7 +5266,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
         <v>332</v>
       </c>
@@ -5283,7 +5274,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="32" t="s">
         <v>330</v>
       </c>
@@ -5291,7 +5282,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="32" t="s">
         <v>328</v>
       </c>
@@ -5299,7 +5290,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="45">
       <c r="A15" s="32" t="s">
         <v>326</v>
       </c>
@@ -5307,7 +5298,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="32" t="s">
         <v>324</v>
       </c>
@@ -5315,7 +5306,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30">
       <c r="A17" s="32" t="s">
         <v>323</v>
       </c>
@@ -5323,7 +5314,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="32" t="s">
         <v>321</v>
       </c>
@@ -5331,7 +5322,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="30">
       <c r="A19" s="32" t="s">
         <v>319</v>
       </c>
@@ -5339,7 +5330,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="45">
       <c r="A20" s="32" t="s">
         <v>317</v>
       </c>
@@ -5347,7 +5338,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="45">
       <c r="A21" s="33" t="s">
         <v>340</v>
       </c>
@@ -5355,7 +5346,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="45">
       <c r="A22" s="33" t="s">
         <v>341</v>
       </c>
@@ -5363,7 +5354,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="33" t="s">
         <v>342</v>
       </c>
@@ -5371,7 +5362,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="33" t="s">
         <v>344</v>
       </c>
@@ -5379,7 +5370,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="33" t="s">
         <v>346</v>
       </c>
@@ -5387,7 +5378,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="33" t="s">
         <v>349</v>
       </c>
@@ -5395,7 +5386,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="35" t="s">
         <v>352</v>
       </c>
@@ -5403,7 +5394,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" s="38" customFormat="1">
       <c r="A28" s="38" t="s">
         <v>392</v>
       </c>
@@ -5411,7 +5402,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="165">
       <c r="A29" s="37" t="s">
         <v>382</v>
       </c>
@@ -5419,7 +5410,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="135">
       <c r="A30" s="37" t="s">
         <v>384</v>
       </c>
@@ -5427,7 +5418,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="105">
       <c r="A31" s="37" t="s">
         <v>386</v>
       </c>
@@ -5454,7 +5445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5462,13 +5453,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="111.33203125" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5476,13 +5467,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
         <v>247</v>
       </c>
@@ -5490,7 +5481,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="50" t="s">
         <v>2</v>
       </c>
@@ -5511,7 +5502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5519,13 +5510,13 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.44140625" customWidth="1"/>
-    <col min="2" max="2" width="107.88671875" customWidth="1"/>
+    <col min="1" max="1" width="79.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5533,13 +5524,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="51"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="36" t="s">
         <v>247</v>
       </c>
@@ -5547,7 +5538,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="36" customFormat="1">
       <c r="A4" s="36" t="s">
         <v>339</v>
       </c>
@@ -5555,13 +5546,13 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="51"/>
     </row>
-    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="75">
       <c r="A10" s="56" t="s">
         <v>357</v>
       </c>
@@ -5569,13 +5560,13 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="60">
       <c r="A11" s="55"/>
       <c r="B11" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="75">
       <c r="A12" s="36" t="s">
         <v>360</v>
       </c>
@@ -5583,7 +5574,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="90">
       <c r="A13" s="36" t="s">
         <v>362</v>
       </c>
@@ -5591,7 +5582,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="75">
       <c r="A14" s="36" t="s">
         <v>364</v>
       </c>
@@ -5599,7 +5590,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="90">
       <c r="A15" s="36" t="s">
         <v>366</v>
       </c>
@@ -5607,7 +5598,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="60">
       <c r="A16" s="36" t="s">
         <v>368</v>
       </c>
@@ -5615,7 +5606,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="105">
       <c r="A17" s="36" t="s">
         <v>370</v>
       </c>
@@ -5623,7 +5614,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="90">
       <c r="A18" s="36" t="s">
         <v>372</v>
       </c>
@@ -5631,7 +5622,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="75">
       <c r="A19" s="36" t="s">
         <v>374</v>
       </c>
@@ -5639,7 +5630,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="50" t="s">
         <v>376</v>
       </c>
